--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -566,16 +566,16 @@
         <v>77067844</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4357</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5362</v>
+        <v>184</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>5458</v>
+        <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46056.35578367847</v>
+        <v>46059.38218707746</v>
       </c>
     </row>
     <row r="5">
@@ -588,16 +588,16 @@
         <v>83685288</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8264</v>
+        <v>4097</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11938</v>
+        <v>6622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13052</v>
+        <v>10613</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>46056.36357242503</v>
+        <v>46059.38234939589</v>
       </c>
     </row>
     <row r="6">
@@ -610,16 +610,16 @@
         <v>77065515</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1062</v>
+        <v>482</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1256</v>
+        <v>572</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>46056.36585963365</v>
+        <v>46059.38239196193</v>
       </c>
     </row>
     <row r="7">
@@ -632,16 +632,16 @@
         <v>77064136</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>546</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>546</v>
+        <v>7695</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>546</v>
+        <v>7695</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>46056.36592392535</v>
+        <v>46059.38246641833</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>77058793</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>710</v>
+        <v>2070</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>865</v>
+        <v>2946</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>865</v>
+        <v>2946</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>46056.36607604993</v>
+        <v>46059.38252451788</v>
       </c>
     </row>
     <row r="9">
@@ -676,16 +676,16 @@
         <v>77064967</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1027</v>
+        <v>165</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1087</v>
+        <v>2796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2966</v>
+        <v>2796</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>46056.36629541954</v>
+        <v>46059.38260158007</v>
       </c>
     </row>
     <row r="10">
@@ -698,16 +698,16 @@
         <v>77065104</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>111</v>
+        <v>790</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>117</v>
+        <v>1315</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>117</v>
+        <v>1315</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>46056.36638138857</v>
+        <v>46059.3826566584</v>
       </c>
     </row>
     <row r="11">
@@ -720,16 +720,16 @@
         <v>77058108</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>297</v>
+        <v>137810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3593</v>
+        <v>137810</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>46056.36663795315</v>
+        <v>46059.38273500949</v>
       </c>
     </row>
     <row r="12">
@@ -742,16 +742,16 @@
         <v>77074420</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>607</v>
+        <v>167</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>652</v>
+        <v>167</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>46056.36685563393</v>
+        <v>46059.38279303433</v>
       </c>
     </row>
     <row r="13">
@@ -764,16 +764,16 @@
         <v>77060437</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>636</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>742</v>
+        <v>112</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>46056.36695977359</v>
+        <v>46059.3828391575</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>77064830</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1707</v>
+        <v>2294</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1928</v>
+        <v>2846</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1928</v>
+        <v>2846</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>46056.36716686697</v>
+        <v>46059.38291613739</v>
       </c>
     </row>
     <row r="15">
@@ -808,16 +808,16 @@
         <v>77063725</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>46056.36720321263</v>
+        <v>46059.38296954311</v>
       </c>
     </row>
     <row r="16">
@@ -830,16 +830,16 @@
         <v>77064419</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>360</v>
+        <v>1230</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>415</v>
+        <v>1590</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>415</v>
+        <v>1590</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>46056.36729839646</v>
+        <v>46059.38303820914</v>
       </c>
     </row>
     <row r="17">
@@ -852,16 +852,16 @@
         <v>77074557</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>327</v>
+        <v>1718</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>794</v>
+        <v>4837</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>933</v>
+        <v>4837</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>46056.36748176118</v>
+        <v>46059.38311952189</v>
       </c>
     </row>
     <row r="18">
@@ -874,16 +874,16 @@
         <v>77058245</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>650</v>
+        <v>1068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>650</v>
+        <v>1068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>650</v>
+        <v>1068</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>46056.36760504071</v>
+        <v>46059.38318990355</v>
       </c>
     </row>
     <row r="19">
@@ -896,16 +896,16 @@
         <v>77086339</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>500</v>
+        <v>2131</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>500</v>
+        <v>2131</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>46056.36771781295</v>
+        <v>46059.38326688784</v>
       </c>
     </row>
     <row r="20">
@@ -918,16 +918,16 @@
         <v>77063862</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1861</v>
+        <v>2979</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2489</v>
+        <v>10285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3511</v>
+        <v>13645</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>46056.36826267492</v>
+        <v>46059.38341579913</v>
       </c>
     </row>
     <row r="21">
@@ -940,16 +940,16 @@
         <v>77082503</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2800</v>
+        <v>2915</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3296</v>
+        <v>4714</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>3296</v>
+        <v>4714</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46056.36866973252</v>
+        <v>46059.38352128757</v>
       </c>
     </row>
     <row r="22">
@@ -962,16 +962,16 @@
         <v>77082914</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>4038</v>
+        <v>9062</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4526</v>
+        <v>9198</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>4526</v>
+        <v>9198</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>46056.36916826407</v>
+        <v>46059.38363044575</v>
       </c>
     </row>
     <row r="23">
@@ -984,16 +984,16 @@
         <v>77083462</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1452</v>
+        <v>2579</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>1468</v>
+        <v>3589</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>1468</v>
+        <v>3589</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>46056.36934268176</v>
+        <v>46059.38372533427</v>
       </c>
     </row>
     <row r="24">
@@ -1006,16 +1006,16 @@
         <v>77087435</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1027</v>
+        <v>764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1783</v>
+        <v>2198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1823</v>
+        <v>3242</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>46056.37264909383</v>
+        <v>46059.38382421988</v>
       </c>
     </row>
     <row r="25">
@@ -1028,16 +1028,16 @@
         <v>77084421</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3202</v>
+        <v>2555</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>3402</v>
+        <v>19007</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>5162</v>
+        <v>19007</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>46056.37316296619</v>
+        <v>46059.38395503726</v>
       </c>
     </row>
     <row r="26">
@@ -1050,16 +1050,16 @@
         <v>77060985</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1773</v>
+        <v>2606</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>2617</v>
+        <v>7870</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>2637</v>
+        <v>7870</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>46056.37421771568</v>
+        <v>46059.38404298887</v>
       </c>
     </row>
     <row r="27">
@@ -1072,16 +1072,16 @@
         <v>77061533</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>46056.37452750493</v>
+        <v>46059.38409031376</v>
       </c>
     </row>
     <row r="28">
@@ -1094,16 +1094,16 @@
         <v>77090997</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>4785</v>
+        <v>3188</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5968</v>
+        <v>5148</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>5968</v>
+        <v>5158</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>46056.37536704649</v>
+        <v>46059.3841963063</v>
       </c>
     </row>
     <row r="29">
@@ -1116,16 +1116,16 @@
         <v>77061807</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2262</v>
+        <v>868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2495</v>
+        <v>959</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2495</v>
+        <v>959</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>46056.3756391617</v>
+        <v>46059.38426151462</v>
       </c>
     </row>
     <row r="30">
@@ -1138,16 +1138,16 @@
         <v>77087572</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>1812</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1812</v>
+        <v>129</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>46056.37586809607</v>
+        <v>46059.38432055216</v>
       </c>
     </row>
     <row r="31">
@@ -1160,16 +1160,16 @@
         <v>77074009</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>2468</v>
+        <v>3202</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>4443</v>
+        <v>5319</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6130</v>
+        <v>21256</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>46056.37759825094</v>
+        <v>46059.38446195026</v>
       </c>
     </row>
     <row r="32">
@@ -1182,16 +1182,16 @@
         <v>77073461</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>4929</v>
+        <v>283</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6805</v>
+        <v>4981</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>7310</v>
+        <v>4981</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>46056.38029061988</v>
+        <v>46059.38458037649</v>
       </c>
     </row>
     <row r="33">
@@ -1204,16 +1204,16 @@
         <v>77062355</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>631</v>
+        <v>2792</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>1016</v>
+        <v>3970</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1332</v>
+        <v>3970</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>46056.3805982459</v>
+        <v>46059.38467267378</v>
       </c>
     </row>
     <row r="34">
@@ -1226,16 +1226,16 @@
         <v>77084558</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>1125</v>
+        <v>1218</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>2695</v>
+        <v>21854</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>2695</v>
+        <v>21854</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>46056.38107687615</v>
+        <v>46059.38475730439</v>
       </c>
     </row>
     <row r="35">
@@ -1248,16 +1248,16 @@
         <v>77084832</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1708</v>
+        <v>1992</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2693</v>
+        <v>2379</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2749</v>
+        <v>2379</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>46056.38187363316</v>
+        <v>46059.38484359292</v>
       </c>
     </row>
     <row r="36">
@@ -1270,16 +1270,16 @@
         <v>77084969</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>2236</v>
+        <v>2540</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3330</v>
+        <v>8348</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>3582</v>
+        <v>8348</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>46056.38238159614</v>
+        <v>46059.38493988222</v>
       </c>
     </row>
     <row r="37">
@@ -1292,16 +1292,16 @@
         <v>77087709</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>2033</v>
+        <v>20126</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>2203</v>
+        <v>36874</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2203</v>
+        <v>36874</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>46056.38262295727</v>
+        <v>46059.38505006467</v>
       </c>
     </row>
     <row r="38">
@@ -1314,16 +1314,16 @@
         <v>77074831</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>4618</v>
+        <v>408</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>5428</v>
+        <v>1046</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>5514</v>
+        <v>1046</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>46056.38320022047</v>
+        <v>46059.38514579141</v>
       </c>
     </row>
     <row r="39">
@@ -1336,16 +1336,16 @@
         <v>77075105</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>2454</v>
+        <v>3540</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>2579</v>
+        <v>3810</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2579</v>
+        <v>3810</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>46056.38340949971</v>
+        <v>46059.3852290934</v>
       </c>
     </row>
     <row r="40">
@@ -1358,16 +1358,16 @@
         <v>77075790</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>3267</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3440</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>4954</v>
+        <v>3736</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>46056.38477869092</v>
+        <v>46059.38528519492</v>
       </c>
     </row>
     <row r="41">
@@ -1380,16 +1380,16 @@
         <v>77075927</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1027</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1214</v>
+        <v>55</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>46056.38655300787</v>
+        <v>46059.38532374338</v>
       </c>
     </row>
     <row r="42">
@@ -1402,16 +1402,16 @@
         <v>77062492</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>1856</v>
+        <v>213</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3081</v>
+        <v>213</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>3126</v>
+        <v>213</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>46056.38715360433</v>
+        <v>46059.38538494557</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>81566907</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1093</v>
+        <v>336</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>1093</v>
+        <v>336</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1093</v>
+        <v>336</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>46056.3872803246</v>
+        <v>46059.38546665665</v>
       </c>
     </row>
     <row r="44">
@@ -1446,16 +1446,16 @@
         <v>77062766</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>1051</v>
+        <v>1350</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>1066</v>
+        <v>1823</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>1066</v>
+        <v>1823</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>46056.38742733099</v>
+        <v>46059.38555339041</v>
       </c>
     </row>
     <row r="45">
@@ -1468,16 +1468,16 @@
         <v>81567129</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>686</v>
+        <v>476</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>727</v>
+        <v>854</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>727</v>
+        <v>854</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>46056.38749933707</v>
+        <v>46059.38562162629</v>
       </c>
     </row>
     <row r="46">
@@ -1490,16 +1490,16 @@
         <v>77089353</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1655</v>
+        <v>6058</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>2308</v>
+        <v>10308</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>2400</v>
+        <v>10308</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>46056.38862131289</v>
+        <v>46059.38572650628</v>
       </c>
     </row>
     <row r="47">
@@ -1512,16 +1512,16 @@
         <v>77085380</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2406</v>
+        <v>1050</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>2740</v>
+        <v>1900</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>2740</v>
+        <v>1900</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>46056.38886147031</v>
+        <v>46059.38580974645</v>
       </c>
     </row>
     <row r="48">
@@ -1534,16 +1534,16 @@
         <v>77063177</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>3108</v>
+        <v>1010</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>5228</v>
+        <v>1462</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>5373</v>
+        <v>1462</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>46056.38998083807</v>
+        <v>46059.38590172677</v>
       </c>
     </row>
     <row r="49">
@@ -1556,16 +1556,16 @@
         <v>77095929</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>396</v>
+        <v>754</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>841</v>
+        <v>2758</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>841</v>
+        <v>2758</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>46056.39019960543</v>
+        <v>46059.38599358443</v>
       </c>
     </row>
     <row r="50">
@@ -1578,16 +1578,16 @@
         <v>77057689</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>505</v>
+        <v>256</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>545</v>
+        <v>256</v>
       </c>
       <c r="F50" s="13" t="n">
-        <v>46056.39033777016</v>
+        <v>46059.38604856279</v>
       </c>
     </row>
     <row r="51">
@@ -1609,7 +1609,7 @@
         <v>1086</v>
       </c>
       <c r="F51" s="13" t="n">
-        <v>46056.3924286313</v>
+        <v>46056.39242863426</v>
       </c>
     </row>
     <row r="52">
@@ -1622,16 +1622,16 @@
         <v>77057552</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>6838</v>
+        <v>1865</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6978</v>
+        <v>3353</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>6978</v>
+        <v>3353</v>
       </c>
       <c r="F52" s="13" t="n">
-        <v>46056.39284265995</v>
+        <v>46059.38618790551</v>
       </c>
     </row>
     <row r="53">
@@ -1653,7 +1653,7 @@
         <v>705</v>
       </c>
       <c r="F53" s="13" t="n">
-        <v>46056.39377792051</v>
+        <v>46056.39377791667</v>
       </c>
     </row>
     <row r="54">
@@ -1666,16 +1666,16 @@
         <v>77059615</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>763</v>
+        <v>114</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>763</v>
+        <v>114</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>46056.39480821569</v>
+        <v>46059.38628592637</v>
       </c>
     </row>
     <row r="55">
@@ -1688,16 +1688,16 @@
         <v>77056867</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>3862</v>
+        <v>210</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4527</v>
+        <v>250</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>4527</v>
+        <v>250</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>46056.39538340674</v>
+        <v>46059.38634951171</v>
       </c>
     </row>
     <row r="56">
@@ -1710,16 +1710,16 @@
         <v>77104560</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>2386</v>
+        <v>1976</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>3223</v>
+        <v>2528</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>3558</v>
+        <v>3608</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>46056.39615362396</v>
+        <v>46059.38644696101</v>
       </c>
     </row>
     <row r="57">
@@ -1732,16 +1732,16 @@
         <v>77057141</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>4944</v>
+        <v>4698</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>5024</v>
+        <v>5995</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>6966</v>
+        <v>51642</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>46056.39768526697</v>
+        <v>46059.38659570112</v>
       </c>
     </row>
     <row r="58">
@@ -1754,16 +1754,16 @@
         <v>77060026</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>1075</v>
+        <v>1019</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1075</v>
+        <v>1019</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>46056.39789300796</v>
+        <v>46059.38667931702</v>
       </c>
     </row>
     <row r="59">
@@ -1776,16 +1776,16 @@
         <v>77060163</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>3535</v>
+        <v>176</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>4868</v>
+        <v>690</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>6915</v>
+        <v>783</v>
       </c>
       <c r="F59" s="13" t="n">
-        <v>46056.3994486289</v>
+        <v>46059.38678535206</v>
       </c>
     </row>
     <row r="60">
@@ -1798,16 +1798,16 @@
         <v>77060300</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>604</v>
+        <v>450</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>46056.39960775855</v>
+        <v>46059.3868684485</v>
       </c>
     </row>
     <row r="61">
@@ -1820,16 +1820,16 @@
         <v>77096477</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>2995</v>
+        <v>1130</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>3169</v>
+        <v>2210</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>3169</v>
+        <v>2210</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>46056.39990322722</v>
+        <v>46059.38694549729</v>
       </c>
     </row>
     <row r="62">
@@ -1851,7 +1851,7 @@
         <v>297</v>
       </c>
       <c r="F62" s="13" t="n">
-        <v>46056.40026614855</v>
+        <v>46056.40026614584</v>
       </c>
     </row>
     <row r="63">
@@ -1864,16 +1864,16 @@
         <v>77089079</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>2735</v>
+        <v>4271</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>3691</v>
+        <v>8834</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>6029</v>
+        <v>8834</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>46056.40224493536</v>
+        <v>46059.3871332162</v>
       </c>
     </row>
     <row r="64">
@@ -1886,16 +1886,16 @@
         <v>77085654</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1567</v>
+        <v>1718</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>2365</v>
+        <v>1828</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>2365</v>
+        <v>1828</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>46056.40303519095</v>
+        <v>46059.38724100649</v>
       </c>
     </row>
     <row r="65">
@@ -1908,16 +1908,16 @@
         <v>77090860</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>1894</v>
+        <v>5994</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>2441</v>
+        <v>14574</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>2546</v>
+        <v>14574</v>
       </c>
       <c r="F65" s="13" t="n">
-        <v>46056.40356059372</v>
+        <v>46059.3873445159</v>
       </c>
     </row>
     <row r="66">
@@ -1930,16 +1930,16 @@
         <v>77063314</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1556</v>
+        <v>2168</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>2003</v>
+        <v>2817</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>2003</v>
+        <v>2817</v>
       </c>
       <c r="F66" s="13" t="n">
-        <v>46056.40425039887</v>
+        <v>46059.38743170522</v>
       </c>
     </row>
     <row r="67">
@@ -1952,16 +1952,16 @@
         <v>77092230</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>6060</v>
+        <v>1224</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>6060</v>
+        <v>2022</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>6060</v>
+        <v>2022</v>
       </c>
       <c r="F67" s="13" t="n">
-        <v>46056.40477756352</v>
+        <v>46059.38751202181</v>
       </c>
     </row>
     <row r="68">
@@ -1974,16 +1974,16 @@
         <v>79519487</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>4405</v>
+        <v>1182</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>4760</v>
+        <v>1182</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>4760</v>
+        <v>1182</v>
       </c>
       <c r="F68" s="13" t="n">
-        <v>46056.40580009233</v>
+        <v>46059.38757838088</v>
       </c>
     </row>
     <row r="69">
@@ -1996,16 +1996,16 @@
         <v>77086476</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>2196</v>
+        <v>1246</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>2636</v>
+        <v>3269</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>2636</v>
+        <v>3269</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>46056.4063463074</v>
+        <v>46059.38766691127</v>
       </c>
     </row>
     <row r="70">
@@ -2018,16 +2018,16 @@
         <v>77091408</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>1422</v>
+        <v>1576</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>1812</v>
+        <v>2470</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>1812</v>
+        <v>2720</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>46056.40717966938</v>
+        <v>46059.38779468103</v>
       </c>
     </row>
     <row r="71">
@@ -2040,16 +2040,16 @@
         <v>78642100</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>1556</v>
+        <v>1075</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>2056</v>
+        <v>13610</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>2171</v>
+        <v>13610</v>
       </c>
       <c r="F71" s="13" t="n">
-        <v>46056.40811920662</v>
+        <v>46059.38796988502</v>
       </c>
     </row>
     <row r="72">
@@ -2062,16 +2062,16 @@
         <v>77086613</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>4204</v>
+        <v>6787</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>7321</v>
+        <v>13254</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>7362</v>
+        <v>13254</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>46056.41051127669</v>
+        <v>46059.38811746138</v>
       </c>
     </row>
     <row r="73">
@@ -2084,16 +2084,16 @@
         <v>77091682</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>1279</v>
+        <v>1825</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>2461</v>
+        <v>2611</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>2461</v>
+        <v>2611</v>
       </c>
       <c r="F73" s="13" t="n">
-        <v>46056.41122929802</v>
+        <v>46059.38820135956</v>
       </c>
     </row>
     <row r="74">
@@ -2106,16 +2106,16 @@
         <v>77063588</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>2754</v>
+        <v>176</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>4517</v>
+        <v>6236</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>4554</v>
+        <v>6244</v>
       </c>
       <c r="F74" s="13" t="n">
-        <v>46056.41226043198</v>
+        <v>46059.38831455886</v>
       </c>
     </row>
     <row r="75">
@@ -2137,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="F75" s="13" t="n">
-        <v>46056.41235198627</v>
+        <v>46056.41235199074</v>
       </c>
     </row>
     <row r="76">
@@ -2150,16 +2150,16 @@
         <v>77073050</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="F76" s="13" t="n">
-        <v>46056.41247044618</v>
+        <v>46059.38841547703</v>
       </c>
     </row>
     <row r="77">
@@ -2172,16 +2172,16 @@
         <v>77067159</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>6965</v>
+        <v>352</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>10088</v>
+        <v>1037</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>14880</v>
+        <v>1037</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>46056.41680214036</v>
+        <v>46059.38850393968</v>
       </c>
     </row>
     <row r="78">
@@ -2194,16 +2194,16 @@
         <v>77068529</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>2514</v>
+        <v>2034</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>2659</v>
+        <v>2470</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>2659</v>
+        <v>2470</v>
       </c>
       <c r="F78" s="13" t="n">
-        <v>46056.41723401052</v>
+        <v>46059.38858712553</v>
       </c>
     </row>
     <row r="79">
@@ -2216,16 +2216,16 @@
         <v>77068666</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>3480</v>
+        <v>30</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>4623</v>
+        <v>574</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>4651</v>
+        <v>635</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>46056.41801558108</v>
+        <v>46059.38870240403</v>
       </c>
     </row>
     <row r="80">
@@ -2238,16 +2238,16 @@
         <v>77067707</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>3432</v>
+        <v>0</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>5155</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>7548</v>
+        <v>2109</v>
       </c>
       <c r="F80" s="13" t="n">
-        <v>46056.42051810909</v>
+        <v>46059.38879011812</v>
       </c>
     </row>
     <row r="81">
@@ -2260,16 +2260,16 @@
         <v>77068803</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>4442</v>
+        <v>385</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>6744</v>
+        <v>582</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>6944</v>
+        <v>947</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>46056.42320967536</v>
+        <v>46059.38888916502</v>
       </c>
     </row>
     <row r="82">
@@ -2282,16 +2282,16 @@
         <v>77068940</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>2489</v>
+        <v>396</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>2629</v>
+        <v>432</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>2629</v>
+        <v>432</v>
       </c>
       <c r="F82" s="13" t="n">
-        <v>46056.42351813604</v>
+        <v>46059.38897724831</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2304,16 +2304,16 @@
         <v>77092778</v>
       </c>
       <c r="C83" s="11" t="n">
-        <v>2586</v>
+        <v>0</v>
       </c>
       <c r="D83" s="11" t="n">
-        <v>3459</v>
+        <v>124</v>
       </c>
       <c r="E83" s="11" t="n">
-        <v>4121</v>
+        <v>314</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>46056.42761117596</v>
+        <v>46059.38905558603</v>
       </c>
     </row>
     <row r="84">
@@ -2326,16 +2326,16 @@
         <v>77071543</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>3316</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>4863</v>
+        <v>110</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>5461</v>
+        <v>166</v>
       </c>
       <c r="F84" s="13" t="n">
-        <v>46056.42998556859</v>
+        <v>46059.38913152046</v>
       </c>
     </row>
     <row r="85">
@@ -2348,16 +2348,16 @@
         <v>77071817</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>2263</v>
+        <v>0</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>4099</v>
+        <v>21</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>4119</v>
+        <v>5818</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>46056.43216954386</v>
+        <v>46059.38919580547</v>
       </c>
     </row>
     <row r="86">
@@ -2370,16 +2370,16 @@
         <v>75695387</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>4246</v>
+        <v>2776</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>4667</v>
+        <v>4361</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>6221</v>
+        <v>4367</v>
       </c>
       <c r="F86" s="13" t="n">
-        <v>46056.43324224671</v>
+        <v>46059.38932814089</v>
       </c>
     </row>
     <row r="87">
@@ -2392,16 +2392,16 @@
         <v>77094833</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>2569</v>
+        <v>464</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>3106</v>
+        <v>464</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>3106</v>
+        <v>464</v>
       </c>
       <c r="F87" s="13" t="n">
-        <v>46056.43383943633</v>
+        <v>46059.38941454258</v>
       </c>
     </row>
     <row r="88">
@@ -2414,16 +2414,16 @@
         <v>77068392</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>2344</v>
+        <v>20</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>2957</v>
+        <v>20</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>2957</v>
+        <v>20</v>
       </c>
       <c r="F88" s="13" t="n">
-        <v>46056.43413624572</v>
+        <v>46059.38947512506</v>
       </c>
     </row>
     <row r="89">
@@ -2436,16 +2436,16 @@
         <v>77093189</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>2658</v>
+        <v>50</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>3128</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>3128</v>
+        <v>50</v>
       </c>
       <c r="F89" s="13" t="n">
-        <v>46056.4343527802</v>
+        <v>46059.38953665519</v>
       </c>
     </row>
     <row r="90">
@@ -2458,16 +2458,16 @@
         <v>77072091</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>1952</v>
+        <v>99</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>2460</v>
+        <v>99</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>2460</v>
+        <v>99</v>
       </c>
       <c r="F90" s="13" t="n">
-        <v>46056.43456736195</v>
+        <v>46059.38962001805</v>
       </c>
     </row>
     <row r="91">
@@ -2480,16 +2480,16 @@
         <v>77092915</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>3762</v>
+        <v>702</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>4068</v>
+        <v>972</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>4171</v>
+        <v>972</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>46056.43506816942</v>
+        <v>46059.38970804266</v>
       </c>
     </row>
     <row r="92">
@@ -2502,16 +2502,16 @@
         <v>77072365</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>4535</v>
+        <v>275</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>5102</v>
+        <v>307</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>5102</v>
+        <v>307</v>
       </c>
       <c r="F92" s="13" t="n">
-        <v>46056.43681366638</v>
+        <v>46059.3897914108</v>
       </c>
     </row>
     <row r="93">
@@ -2523,9 +2523,18 @@
       <c r="B93" s="3" t="n">
         <v>77069625</v>
       </c>
-      <c r="C93" s="5" t="n"/>
-      <c r="D93" s="5" t="n"/>
-      <c r="E93" s="5" t="n"/>
+      <c r="C93" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>46059.38986452326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -1,38 +1,369 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user3\practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+  <si>
+    <t>Наменование МО</t>
+  </si>
+  <si>
+    <t>РМИС ID</t>
+  </si>
+  <si>
+    <t>Выложено на ЕПГУ</t>
+  </si>
+  <si>
+    <t>Общее количество талонов</t>
+  </si>
+  <si>
+    <t>Общее количество талонов (все интервалы)</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОКБ № 2»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ОКБ № 3»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОСП»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ЧОКНБ»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Областной наркологический диспансер»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОКСПНБ № 1»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОПБ № 3»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОПНБ № 5»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОПБ № 7»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОПНД»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ЧОКПТД»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОПТД № 8»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОТБ № 1»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОТБ № 2»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОТБ № 3»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ОТБ № 13»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Агаповка»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Аргаяш»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Аша»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница п. Бреды»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Варна»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Верхнеуральск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница г. Верхний Уфалей»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Стоматологическая поликлиника г. Верхний Уфалей»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Долгодеревенское»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГБ № 1 г. Еманжелинск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Еткуль»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская детская больница г. Златоуст»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница г. Златоуст»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница г. Карабаш»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Карталинская городская больница»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Касли»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Катав-Ивановск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Кизильское»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница № 1 г. Копейск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница № 3 г. Копейск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ДГБ г. Копейск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Стоматологическая поликлиника г. Копейск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница № 1 г. Коркино»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница № 2 г. Коркино»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница № 3 г. Коркино»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГДБ г. Коркино»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Кунашак»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Куса»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница им. А.П. Силаева г. Кыштым»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Областная больница» рабочего поселка Локомотивный</t>
+  </si>
+  <si>
+    <t>ГАУЗ «Родильный дом № 1 г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Детская стоматологическая поликлиника г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ЦОМиД г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Стоматологическая поликлиника № 1 г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Стоматологическая поликлиника № 2 г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «Городская больница № 1 имени Г.И. Дробышева г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «Городская больница № 2 г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «Городская больница № 3 г. Магнитогорск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГБ № 1 г. Миасс»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГБ № 2 г. Миасс»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «Городская больница № 3 г. Миасс»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГДП г. Миасс»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «СП г. Миасс»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Миасское»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Нязепетровск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Октябрьское»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница г. Пласт»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница г. Сатка»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Областная больница г. Троицк»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница п. Увельский»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Уйское»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Фершампенуаз»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Областная больница г. Чебаркуль»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Районная больница с. Чесма»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «Городская больница г. Южноуральск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «СП № 1 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «СП № 6 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ ОТКЗ «ГКБ № 1 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГКБ № 2 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГКБ № 5 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГКБ № 6 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ ОЗП «ГКБ № 8 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГКБ № 9 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГКБ № 11 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ГКП № 5 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ГКП № 8 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГКБ № 1 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГБУЗ «ДГКБ № 7 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГКБ № 8 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГКП № 1 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГП № 4 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГКП № 6 г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ «ДГКП № 8 им.А.Невского г. Челябинск»</t>
+  </si>
+  <si>
+    <t>ГАУЗ ДГКП № 9 г. Челябинск</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,25 +371,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -66,44 +445,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -131,14 +510,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -166,9 +562,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -177,177 +590,1272 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>77067844</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>83685288</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>77065515</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>77064136</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>77058793</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>77064967</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>77065104</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>77058108</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>77074420</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>77060437</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>77064830</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>77063725</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>77064419</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>77074557</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>77058245</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>77086339</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>77063862</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>77082503</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>77082914</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>77083462</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>77087435</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>77084421</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>77060985</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>77061533</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>77090997</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>77061807</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>77087572</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>77074009</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
+        <v>77073461</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>77062355</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>77084558</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>77084832</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3">
+        <v>77084969</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>77087709</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3">
+        <v>77074831</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
+        <v>77075105</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3">
+        <v>77075790</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3">
+        <v>77075927</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3">
+        <v>77062492</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3">
+        <v>81566907</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3">
+        <v>77062766</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3">
+        <v>81567129</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3">
+        <v>77089353</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3">
+        <v>77085380</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>77063177</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="3">
+        <v>77095929</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="3">
+        <v>77057689</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3">
+        <v>77059341</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3">
+        <v>77057552</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3">
+        <v>77059752</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3">
+        <v>77059615</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3">
+        <v>77056867</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3">
+        <v>77104560</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3">
+        <v>77057141</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3">
+        <v>77060026</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3">
+        <v>77060163</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="3">
+        <v>77060300</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="3">
+        <v>77096477</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="3">
+        <v>77096340</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="3">
+        <v>77089079</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="3">
+        <v>77085654</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="3">
+        <v>77090860</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3">
+        <v>77063314</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3">
+        <v>77092230</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3">
+        <v>79519487</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="3">
+        <v>77086476</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3">
+        <v>77091408</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="3">
+        <v>78642100</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="3">
+        <v>77086613</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="3">
+        <v>77091682</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="3">
+        <v>77063588</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="3">
+        <v>77072776</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="3">
+        <v>77073050</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="3">
+        <v>77067159</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="3">
+        <v>77068529</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="3">
+        <v>77068666</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="3">
+        <v>77067707</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="3">
+        <v>77068803</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="3">
+        <v>77068940</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="10">
+        <v>77092778</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="3">
+        <v>77071543</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="3">
+        <v>77071817</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="3">
+        <v>75695387</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="3">
+        <v>77094833</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="3">
+        <v>77068392</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="3">
+        <v>77093189</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="3">
+        <v>77072091</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="3">
+        <v>77092915</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="3">
+        <v>77072365</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="3">
+        <v>77069625</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -575,7 +575,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46059.49661312286</v>
+        <v>46059.53091146774</v>
       </c>
     </row>
     <row r="5">

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -502,7 +502,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="69" customWidth="1" min="1" max="1"/>
     <col width="14.85546875" customWidth="1" min="2" max="2"/>
@@ -575,7 +575,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46059.53091146774</v>
+        <v>46059.53758419809</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         <v>10613</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>46059.49052640046</v>
+        <v>46059.53773738394</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>572</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>46059.49057078703</v>
+        <v>46059.53777846407</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>46059.49064858796</v>
+        <v>46059.5378540494</v>
       </c>
     </row>
     <row r="8">
@@ -663,7 +663,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>46059.49070390046</v>
+        <v>46059.53790909077</v>
       </c>
     </row>
     <row r="9">
@@ -685,7 +685,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>46059.49078137732</v>
+        <v>46059.53798534392</v>
       </c>
     </row>
     <row r="10">

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -92,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -119,6 +120,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -707,7 +709,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>46059.49083488426</v>
+        <v>46059.5380385711</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +731,7 @@
         <v>137810</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>46059.49090373843</v>
+        <v>46059.53811423812</v>
       </c>
     </row>
     <row r="12">
@@ -751,7 +753,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>46059.49095875</v>
+        <v>46059.53817174053</v>
       </c>
     </row>
     <row r="13">
@@ -773,7 +775,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>46059.49100446759</v>
+        <v>46059.53821869312</v>
       </c>
     </row>
     <row r="14">
@@ -795,7 +797,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>46059.46045190972</v>
+        <v>46059.53829392797</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +819,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>46059.46050395833</v>
+        <v>46059.53834422554</v>
       </c>
     </row>
     <row r="16">
@@ -839,7 +841,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>46059.46058171296</v>
+        <v>46059.53841057991</v>
       </c>
     </row>
     <row r="17">
@@ -861,7 +863,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>46059.46066334491</v>
+        <v>46059.53848620679</v>
       </c>
     </row>
     <row r="18">
@@ -883,7 +885,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>46059.46073063657</v>
+        <v>46059.53854931119</v>
       </c>
     </row>
     <row r="19">
@@ -905,7 +907,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>46059.46080827546</v>
+        <v>46059.53862136353</v>
       </c>
     </row>
     <row r="20">
@@ -927,7 +929,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>46059.46094715278</v>
+        <v>46059.53874835566</v>
       </c>
     </row>
     <row r="21">
@@ -949,7 +951,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46059.46105094907</v>
+        <v>46059.5388638936</v>
       </c>
     </row>
     <row r="22">
@@ -971,7 +973,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>46059.46115666666</v>
+        <v>46059.5389593471</v>
       </c>
     </row>
     <row r="23">
@@ -993,7 +995,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>46059.46125239583</v>
+        <v>46059.53905187188</v>
       </c>
     </row>
     <row r="24">
@@ -1015,7 +1017,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>46059.46135009259</v>
+        <v>46059.539147042</v>
       </c>
     </row>
     <row r="25">
@@ -1037,7 +1039,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>46059.46147087963</v>
+        <v>46059.53926362701</v>
       </c>
     </row>
     <row r="26">
@@ -1059,7 +1061,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>46059.46156020834</v>
+        <v>46059.53935678787</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1083,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>46059.46161186343</v>
+        <v>46059.53940679853</v>
       </c>
     </row>
     <row r="28">
@@ -1103,7 +1105,7 @@
         <v>5158</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>46059.46172664352</v>
+        <v>46059.53951991377</v>
       </c>
     </row>
     <row r="29">
@@ -1125,7 +1127,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>46059.46178803241</v>
+        <v>46059.53957918529</v>
       </c>
     </row>
     <row r="30">
@@ -1147,7 +1149,7 @@
         <v>129</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>46059.46184733796</v>
+        <v>46059.53963621831</v>
       </c>
     </row>
     <row r="31">
@@ -1169,7 +1171,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>46059.46197833333</v>
+        <v>46059.53976903058</v>
       </c>
     </row>
     <row r="32">
@@ -1181,10 +1183,18 @@
       <c r="B32" s="3" t="n">
         <v>77073461</v>
       </c>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="13" t="n"/>
+      <c r="C32" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>4981</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>4981</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>46059.53988654909</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -1195,10 +1205,18 @@
       <c r="B33" s="3" t="n">
         <v>77062355</v>
       </c>
-      <c r="C33" s="5" t="n"/>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="5" t="n"/>
-      <c r="F33" s="13" t="n"/>
+      <c r="C33" s="5" t="n">
+        <v>2792</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>3970</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>3970</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>46059.53997425882</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1209,10 +1227,18 @@
       <c r="B34" s="3" t="n">
         <v>77084558</v>
       </c>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="13" t="n"/>
+      <c r="C34" s="3" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>21854</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>21854</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>46059.54006081788</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -1223,10 +1249,18 @@
       <c r="B35" s="3" t="n">
         <v>77084832</v>
       </c>
-      <c r="C35" s="5" t="n"/>
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="5" t="n"/>
-      <c r="F35" s="13" t="n"/>
+      <c r="C35" s="5" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>2379</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>2379</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>46059.54014606655</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1237,10 +1271,18 @@
       <c r="B36" s="3" t="n">
         <v>77084969</v>
       </c>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="13" t="n"/>
+      <c r="C36" s="3" t="n">
+        <v>2540</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>8348</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>8348</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>46059.54024438324</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1251,10 +1293,18 @@
       <c r="B37" s="3" t="n">
         <v>77087709</v>
       </c>
-      <c r="C37" s="5" t="n"/>
-      <c r="D37" s="5" t="n"/>
-      <c r="E37" s="5" t="n"/>
-      <c r="F37" s="13" t="n"/>
+      <c r="C37" s="5" t="n">
+        <v>20126</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>36874</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>36874</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>46059.54035716671</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1265,10 +1315,18 @@
       <c r="B38" s="3" t="n">
         <v>77074831</v>
       </c>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="13" t="n"/>
+      <c r="C38" s="3" t="n">
+        <v>408</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>46059.54044925128</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -1279,10 +1337,18 @@
       <c r="B39" s="3" t="n">
         <v>77075105</v>
       </c>
-      <c r="C39" s="5" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="5" t="n"/>
-      <c r="F39" s="13" t="n"/>
+      <c r="C39" s="5" t="n">
+        <v>3540</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>3810</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>3810</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>46059.54052925901</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -1293,10 +1359,18 @@
       <c r="B40" s="3" t="n">
         <v>77075790</v>
       </c>
-      <c r="C40" s="3" t="n"/>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="13" t="n"/>
+      <c r="C40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>3736</v>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>46059.54058303366</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -1307,10 +1381,18 @@
       <c r="B41" s="3" t="n">
         <v>77075927</v>
       </c>
-      <c r="C41" s="5" t="n"/>
-      <c r="D41" s="5" t="n"/>
-      <c r="E41" s="5" t="n"/>
-      <c r="F41" s="13" t="n"/>
+      <c r="C41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>46059.54062452113</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -1321,10 +1403,18 @@
       <c r="B42" s="3" t="n">
         <v>77062492</v>
       </c>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="13" t="n"/>
+      <c r="C42" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>46059.54068107347</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -1335,10 +1425,18 @@
       <c r="B43" s="3" t="n">
         <v>81566907</v>
       </c>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="5" t="n"/>
-      <c r="E43" s="5" t="n"/>
-      <c r="F43" s="13" t="n"/>
+      <c r="C43" s="3" t="n">
+        <v>336</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>336</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>336</v>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>46059.54075081806</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -1349,10 +1447,18 @@
       <c r="B44" s="3" t="n">
         <v>77062766</v>
       </c>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="3" t="n"/>
-      <c r="F44" s="13" t="n"/>
+      <c r="C44" s="3" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>1823</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1823</v>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>46059.5408242816</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1363,10 +1469,18 @@
       <c r="B45" s="3" t="n">
         <v>81567129</v>
       </c>
-      <c r="C45" s="5" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="13" t="n"/>
+      <c r="C45" s="5" t="n">
+        <v>476</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>854</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>854</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>46059.54089443976</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -1377,10 +1491,18 @@
       <c r="B46" s="3" t="n">
         <v>77089353</v>
       </c>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="4" t="n"/>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="13" t="n"/>
+      <c r="C46" s="3" t="n">
+        <v>6058</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>10308</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>10308</v>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>46059.54099375212</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -1391,10 +1513,18 @@
       <c r="B47" s="3" t="n">
         <v>77085380</v>
       </c>
-      <c r="C47" s="5" t="n"/>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="3" t="n"/>
-      <c r="F47" s="13" t="n"/>
+      <c r="C47" s="5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>46059.54106981124</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -1405,10 +1535,18 @@
       <c r="B48" s="3" t="n">
         <v>77063177</v>
       </c>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="4" t="n"/>
-      <c r="E48" s="4" t="n"/>
-      <c r="F48" s="13" t="n"/>
+      <c r="C48" s="3" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>1462</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1462</v>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>46059.54115563</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -1419,10 +1557,18 @@
       <c r="B49" s="3" t="n">
         <v>77095929</v>
       </c>
-      <c r="C49" s="5" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="13" t="n"/>
+      <c r="C49" s="5" t="n">
+        <v>754</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>2758</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2758</v>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>46059.54124026495</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -1433,10 +1579,18 @@
       <c r="B50" s="3" t="n">
         <v>77057689</v>
       </c>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="4" t="n"/>
-      <c r="E50" s="4" t="n"/>
-      <c r="F50" s="13" t="n"/>
+      <c r="C50" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>46059.54129087304</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -1461,10 +1615,18 @@
       <c r="B52" s="3" t="n">
         <v>77057552</v>
       </c>
-      <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="13" t="n"/>
+      <c r="C52" s="3" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>3353</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>3353</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>46059.54142291749</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -1489,10 +1651,18 @@
       <c r="B54" s="3" t="n">
         <v>77059615</v>
       </c>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="13" t="n"/>
+      <c r="C54" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>46059.54151298032</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -1503,10 +1673,18 @@
       <c r="B55" s="3" t="n">
         <v>77056867</v>
       </c>
-      <c r="C55" s="5" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="13" t="n"/>
+      <c r="C55" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>46059.54157081942</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -1517,10 +1695,18 @@
       <c r="B56" s="3" t="n">
         <v>77104560</v>
       </c>
-      <c r="C56" s="3" t="n"/>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="3" t="n"/>
-      <c r="F56" s="13" t="n"/>
+      <c r="C56" s="3" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>2528</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>3608</v>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>46059.54166684115</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -1531,10 +1717,18 @@
       <c r="B57" s="3" t="n">
         <v>77057141</v>
       </c>
-      <c r="C57" s="5" t="n"/>
-      <c r="D57" s="5" t="n"/>
-      <c r="E57" s="5" t="n"/>
-      <c r="F57" s="13" t="n"/>
+      <c r="C57" s="5" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>5995</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>51642</v>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>46059.54182196552</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -1545,10 +1739,18 @@
       <c r="B58" s="3" t="n">
         <v>77060026</v>
       </c>
-      <c r="C58" s="3" t="n"/>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="13" t="n"/>
+      <c r="C58" s="3" t="n">
+        <v>899</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>46059.54190043155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1559,10 +1761,18 @@
       <c r="B59" s="3" t="n">
         <v>77060163</v>
       </c>
-      <c r="C59" s="5" t="n"/>
-      <c r="D59" s="5" t="n"/>
-      <c r="E59" s="5" t="n"/>
-      <c r="F59" s="13" t="n"/>
+      <c r="C59" s="5" t="n">
+        <v>176</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>690</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>783</v>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>46059.54199695999</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -1573,10 +1783,18 @@
       <c r="B60" s="3" t="n">
         <v>77060300</v>
       </c>
-      <c r="C60" s="3" t="n"/>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="13" t="n"/>
+      <c r="C60" s="3" t="n">
+        <v>450</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>46059.54206560506</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -1587,10 +1805,18 @@
       <c r="B61" s="3" t="n">
         <v>77096477</v>
       </c>
-      <c r="C61" s="5" t="n"/>
-      <c r="D61" s="5" t="n"/>
-      <c r="E61" s="5" t="n"/>
-      <c r="F61" s="13" t="n"/>
+      <c r="C61" s="5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>2210</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>2210</v>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>46059.54213511149</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -1615,10 +1841,18 @@
       <c r="B63" s="3" t="n">
         <v>77089079</v>
       </c>
-      <c r="C63" s="5" t="n"/>
-      <c r="D63" s="5" t="n"/>
-      <c r="E63" s="5" t="n"/>
-      <c r="F63" s="13" t="n"/>
+      <c r="C63" s="5" t="n">
+        <v>4271</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>8834</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>8834</v>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>46059.54230670146</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -1629,10 +1863,18 @@
       <c r="B64" s="3" t="n">
         <v>77085654</v>
       </c>
-      <c r="C64" s="3" t="n"/>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="3" t="n"/>
-      <c r="F64" s="13" t="n"/>
+      <c r="C64" s="3" t="n">
+        <v>1718</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>46059.54239360971</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
@@ -1643,10 +1885,18 @@
       <c r="B65" s="3" t="n">
         <v>77090860</v>
       </c>
-      <c r="C65" s="5" t="n"/>
-      <c r="D65" s="5" t="n"/>
-      <c r="E65" s="5" t="n"/>
-      <c r="F65" s="13" t="n"/>
+      <c r="C65" s="5" t="n">
+        <v>5994</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>14574</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>14574</v>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>46059.54249177824</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -1657,10 +1907,18 @@
       <c r="B66" s="3" t="n">
         <v>77063314</v>
       </c>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="3" t="n"/>
-      <c r="F66" s="13" t="n"/>
+      <c r="C66" s="3" t="n">
+        <v>2168</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>46059.54258630895</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -1671,10 +1929,18 @@
       <c r="B67" s="3" t="n">
         <v>77092230</v>
       </c>
-      <c r="C67" s="5" t="n"/>
-      <c r="D67" s="5" t="n"/>
-      <c r="E67" s="5" t="n"/>
-      <c r="F67" s="13" t="n"/>
+      <c r="C67" s="5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>46059.54266645909</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
@@ -1685,10 +1951,18 @@
       <c r="B68" s="3" t="n">
         <v>79519487</v>
       </c>
-      <c r="C68" s="3" t="n"/>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="3" t="n"/>
-      <c r="F68" s="13" t="n"/>
+      <c r="C68" s="3" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>1182</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>46059.542729758</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -1699,10 +1973,18 @@
       <c r="B69" s="3" t="n">
         <v>77086476</v>
       </c>
-      <c r="C69" s="5" t="n"/>
-      <c r="D69" s="5" t="n"/>
-      <c r="E69" s="5" t="n"/>
-      <c r="F69" s="13" t="n"/>
+      <c r="C69" s="5" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>3269</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>3269</v>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>46059.54281193192</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -1713,10 +1995,18 @@
       <c r="B70" s="3" t="n">
         <v>77091408</v>
       </c>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="3" t="n"/>
-      <c r="F70" s="13" t="n"/>
+      <c r="C70" s="3" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>2720</v>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>46059.54292761007</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -1727,10 +2017,18 @@
       <c r="B71" s="3" t="n">
         <v>78642100</v>
       </c>
-      <c r="C71" s="5" t="n"/>
-      <c r="D71" s="5" t="n"/>
-      <c r="E71" s="5" t="n"/>
-      <c r="F71" s="13" t="n"/>
+      <c r="C71" s="5" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>13610</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>13610</v>
+      </c>
+      <c r="F71" s="13" t="n">
+        <v>46059.54310018446</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -1741,10 +2039,18 @@
       <c r="B72" s="3" t="n">
         <v>77086613</v>
       </c>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="13" t="n"/>
+      <c r="C72" s="3" t="n">
+        <v>6787</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>13254</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>13254</v>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>46059.54323532723</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -1755,10 +2061,18 @@
       <c r="B73" s="3" t="n">
         <v>77091682</v>
       </c>
-      <c r="C73" s="5" t="n"/>
-      <c r="D73" s="5" t="n"/>
-      <c r="E73" s="5" t="n"/>
-      <c r="F73" s="13" t="n"/>
+      <c r="C73" s="5" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>2611</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>2611</v>
+      </c>
+      <c r="F73" s="13" t="n">
+        <v>46059.54332129227</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -1769,10 +2083,18 @@
       <c r="B74" s="3" t="n">
         <v>77063588</v>
       </c>
-      <c r="C74" s="3" t="n"/>
-      <c r="D74" s="3" t="n"/>
-      <c r="E74" s="3" t="n"/>
-      <c r="F74" s="13" t="n"/>
+      <c r="C74" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>6244</v>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>46059.54342864234</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
@@ -1797,10 +2119,18 @@
       <c r="B76" s="3" t="n">
         <v>77073050</v>
       </c>
-      <c r="C76" s="3" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="3" t="n"/>
-      <c r="F76" s="13" t="n"/>
+      <c r="C76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>46059.54352542297</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -1811,10 +2141,18 @@
       <c r="B77" s="3" t="n">
         <v>77067159</v>
       </c>
-      <c r="C77" s="5" t="n"/>
-      <c r="D77" s="5" t="n"/>
-      <c r="E77" s="5" t="n"/>
-      <c r="F77" s="13" t="n"/>
+      <c r="C77" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>1037</v>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>46059.54360769302</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
@@ -1825,10 +2163,18 @@
       <c r="B78" s="3" t="n">
         <v>77068529</v>
       </c>
-      <c r="C78" s="3" t="n"/>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="3" t="n"/>
-      <c r="F78" s="13" t="n"/>
+      <c r="C78" s="3" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>46059.54368468954</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -1839,10 +2185,18 @@
       <c r="B79" s="3" t="n">
         <v>77068666</v>
       </c>
-      <c r="C79" s="5" t="n"/>
-      <c r="D79" s="5" t="n"/>
-      <c r="E79" s="5" t="n"/>
-      <c r="F79" s="13" t="n"/>
+      <c r="C79" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>574</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>635</v>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>46059.54379486278</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
@@ -1853,10 +2207,18 @@
       <c r="B80" s="3" t="n">
         <v>77067707</v>
       </c>
-      <c r="C80" s="3" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="3" t="n"/>
-      <c r="F80" s="13" t="n"/>
+      <c r="C80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>2109</v>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>46059.5438757622</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -1867,10 +2229,18 @@
       <c r="B81" s="3" t="n">
         <v>77068803</v>
       </c>
-      <c r="C81" s="5" t="n"/>
-      <c r="D81" s="5" t="n"/>
-      <c r="E81" s="5" t="n"/>
-      <c r="F81" s="13" t="n"/>
+      <c r="C81" s="5" t="n">
+        <v>385</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>582</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>947</v>
+      </c>
+      <c r="F81" s="13" t="n">
+        <v>46059.54397212647</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -1881,10 +2251,18 @@
       <c r="B82" s="3" t="n">
         <v>77068940</v>
       </c>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="3" t="n"/>
-      <c r="F82" s="13" t="n"/>
+      <c r="C82" s="3" t="n">
+        <v>396</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>432</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>432</v>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>46059.54404537278</v>
+      </c>
     </row>
     <row r="83" customFormat="1" s="12">
       <c r="A83" s="10" t="inlineStr">
@@ -1895,10 +2273,18 @@
       <c r="B83" s="10" t="n">
         <v>77092778</v>
       </c>
-      <c r="C83" s="11" t="n"/>
-      <c r="D83" s="11" t="n"/>
-      <c r="E83" s="11" t="n"/>
-      <c r="F83" s="13" t="n"/>
+      <c r="C83" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>124</v>
+      </c>
+      <c r="E83" s="11" t="n">
+        <v>314</v>
+      </c>
+      <c r="F83" s="13" t="n">
+        <v>46059.54412229943</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -1909,10 +2295,18 @@
       <c r="B84" s="3" t="n">
         <v>77071543</v>
       </c>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="13" t="n"/>
+      <c r="C84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>46059.54420464768</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -1923,10 +2317,18 @@
       <c r="B85" s="3" t="n">
         <v>77071817</v>
       </c>
-      <c r="C85" s="5" t="n"/>
-      <c r="D85" s="5" t="n"/>
-      <c r="E85" s="5" t="n"/>
-      <c r="F85" s="13" t="n"/>
+      <c r="C85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>5818</v>
+      </c>
+      <c r="F85" s="13" t="n">
+        <v>46059.54426970275</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -1937,10 +2339,18 @@
       <c r="B86" s="3" t="n">
         <v>75695387</v>
       </c>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="3" t="n"/>
-      <c r="F86" s="13" t="n"/>
+      <c r="C86" s="3" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>4361</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>4367</v>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>46059.54437767991</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
@@ -1951,10 +2361,18 @@
       <c r="B87" s="3" t="n">
         <v>77094833</v>
       </c>
-      <c r="C87" s="5" t="n"/>
-      <c r="D87" s="5" t="n"/>
-      <c r="E87" s="5" t="n"/>
-      <c r="F87" s="13" t="n"/>
+      <c r="C87" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="F87" s="13" t="n">
+        <v>46059.54446021897</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
@@ -1965,10 +2383,18 @@
       <c r="B88" s="3" t="n">
         <v>77068392</v>
       </c>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="3" t="n"/>
-      <c r="F88" s="13" t="n"/>
+      <c r="C88" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>46059.5445146705</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
@@ -1979,10 +2405,18 @@
       <c r="B89" s="3" t="n">
         <v>77093189</v>
       </c>
-      <c r="C89" s="5" t="n"/>
-      <c r="D89" s="5" t="n"/>
-      <c r="E89" s="5" t="n"/>
-      <c r="F89" s="13" t="n"/>
+      <c r="C89" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>46059.54457250851</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
@@ -1993,10 +2427,18 @@
       <c r="B90" s="3" t="n">
         <v>77072091</v>
       </c>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="3" t="n"/>
-      <c r="F90" s="13" t="n"/>
+      <c r="C90" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>46059.54464948243</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -2007,10 +2449,18 @@
       <c r="B91" s="3" t="n">
         <v>77092915</v>
       </c>
-      <c r="C91" s="5" t="n"/>
-      <c r="D91" s="5" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="13" t="n"/>
+      <c r="C91" s="5" t="n">
+        <v>702</v>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>972</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>972</v>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>46059.54473179882</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -2021,10 +2471,18 @@
       <c r="B92" s="3" t="n">
         <v>77072365</v>
       </c>
-      <c r="C92" s="3" t="n"/>
-      <c r="D92" s="3" t="n"/>
-      <c r="E92" s="3" t="n"/>
-      <c r="F92" s="13" t="n"/>
+      <c r="C92" s="3" t="n">
+        <v>275</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>46059.54480959695</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -2035,9 +2493,18 @@
       <c r="B93" s="3" t="n">
         <v>77069625</v>
       </c>
-      <c r="C93" s="5" t="n"/>
-      <c r="D93" s="5" t="n"/>
-      <c r="E93" s="5" t="n"/>
+      <c r="C93" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="F93" s="14" t="n">
+        <v>46059.54488303386</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -577,7 +577,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46059.53758419809</v>
+        <v>46059.65980691172</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +599,7 @@
         <v>10613</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>46059.53773738394</v>
+        <v>46059.65995715254</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>572</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>46059.53777846407</v>
+        <v>46059.65999716538</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>46059.5378540494</v>
+        <v>46059.66007214536</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>46059.53790909077</v>
+        <v>46059.66012665252</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +687,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>46059.53798534392</v>
+        <v>46059.6602003532</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>46059.5380385711</v>
+        <v>46059.66025251971</v>
       </c>
     </row>
     <row r="11">
@@ -731,7 +731,7 @@
         <v>137810</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>46059.53811423812</v>
+        <v>46059.66032146072</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>46059.53817174053</v>
+        <v>46059.66038019627</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +775,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>46059.53821869312</v>
+        <v>46059.66042983416</v>
       </c>
     </row>
     <row r="14">
@@ -797,7 +797,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>46059.53829392797</v>
+        <v>46059.6605043672</v>
       </c>
     </row>
     <row r="15">
@@ -819,7 +819,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>46059.53834422554</v>
+        <v>46059.66055578535</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>46059.53841057991</v>
+        <v>46059.66062399177</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +863,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>46059.53848620679</v>
+        <v>46059.66069821164</v>
       </c>
     </row>
     <row r="18">
@@ -885,7 +885,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>46059.53854931119</v>
+        <v>46059.66076202537</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>46059.53862136353</v>
+        <v>46059.66083467758</v>
       </c>
     </row>
     <row r="20">
@@ -929,7 +929,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>46059.53874835566</v>
+        <v>46059.66096433424</v>
       </c>
     </row>
     <row r="21">
@@ -951,7 +951,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46059.5388638936</v>
+        <v>46059.66106185486</v>
       </c>
     </row>
     <row r="22">
@@ -973,7 +973,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>46059.5389593471</v>
+        <v>46059.66115715571</v>
       </c>
     </row>
     <row r="23">
@@ -995,7 +995,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>46059.53905187188</v>
+        <v>46059.66124579566</v>
       </c>
     </row>
     <row r="24">
@@ -1017,7 +1017,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>46059.539147042</v>
+        <v>46059.66133725129</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1039,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>46059.53926362701</v>
+        <v>46059.66145118562</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>46059.53935678787</v>
+        <v>46059.66153791213</v>
       </c>
     </row>
     <row r="27">
@@ -1083,7 +1083,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>46059.53940679853</v>
+        <v>46059.66158826633</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         <v>5158</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>46059.53951991377</v>
+        <v>46059.66170293984</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1127,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>46059.53957918529</v>
+        <v>46059.66176027008</v>
       </c>
     </row>
     <row r="30">
@@ -1149,7 +1149,7 @@
         <v>129</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>46059.53963621831</v>
+        <v>46059.66181532218</v>
       </c>
     </row>
     <row r="31">
@@ -1171,7 +1171,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>46059.53976903058</v>
+        <v>46059.66193999776</v>
       </c>
     </row>
     <row r="32">
@@ -1193,7 +1193,7 @@
         <v>4981</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>46059.53988654909</v>
+        <v>46059.66206859762</v>
       </c>
     </row>
     <row r="33">
@@ -1215,7 +1215,7 @@
         <v>3970</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>46059.53997425882</v>
+        <v>46059.66215475167</v>
       </c>
     </row>
     <row r="34">
@@ -1237,7 +1237,7 @@
         <v>21854</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>46059.54006081788</v>
+        <v>46059.66224219882</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1259,7 @@
         <v>2379</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>46059.54014606655</v>
+        <v>46059.66232576448</v>
       </c>
     </row>
     <row r="36">
@@ -1281,7 +1281,7 @@
         <v>8348</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>46059.54024438324</v>
+        <v>46059.6624270946</v>
       </c>
     </row>
     <row r="37">
@@ -1303,7 +1303,7 @@
         <v>36874</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>46059.54035716671</v>
+        <v>46059.66253669831</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>1046</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>46059.54044925128</v>
+        <v>46059.6626257832</v>
       </c>
     </row>
     <row r="39">
@@ -1347,7 +1347,7 @@
         <v>3810</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>46059.54052925901</v>
+        <v>46059.66270214901</v>
       </c>
     </row>
     <row r="40">
@@ -1369,7 +1369,7 @@
         <v>3736</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>46059.54058303366</v>
+        <v>46059.66276649987</v>
       </c>
     </row>
     <row r="41">
@@ -1391,7 +1391,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>46059.54062452113</v>
+        <v>46059.66280422416</v>
       </c>
     </row>
     <row r="42">
@@ -1413,7 +1413,7 @@
         <v>213</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>46059.54068107347</v>
+        <v>46059.66285832411</v>
       </c>
     </row>
     <row r="43">
@@ -1435,7 +1435,7 @@
         <v>336</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>46059.54075081806</v>
+        <v>46059.66292610068</v>
       </c>
     </row>
     <row r="44">
@@ -1457,7 +1457,7 @@
         <v>1823</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>46059.5408242816</v>
+        <v>46059.66299635459</v>
       </c>
     </row>
     <row r="45">
@@ -1479,7 +1479,7 @@
         <v>854</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>46059.54089443976</v>
+        <v>46059.66306727869</v>
       </c>
     </row>
     <row r="46">
@@ -1501,7 +1501,7 @@
         <v>10308</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>46059.54099375212</v>
+        <v>46059.66316517852</v>
       </c>
     </row>
     <row r="47">
@@ -1523,7 +1523,7 @@
         <v>1900</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>46059.54106981124</v>
+        <v>46059.66325368522</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>1462</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>46059.54115563</v>
+        <v>46059.66334253606</v>
       </c>
     </row>
     <row r="49">
@@ -1567,7 +1567,7 @@
         <v>2758</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>46059.54124026495</v>
+        <v>46059.66344184059</v>
       </c>
     </row>
     <row r="50">
@@ -1589,7 +1589,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="13" t="n">
-        <v>46059.54129087304</v>
+        <v>46059.66349388538</v>
       </c>
     </row>
     <row r="51">
@@ -1625,7 +1625,7 @@
         <v>3353</v>
       </c>
       <c r="F52" s="13" t="n">
-        <v>46059.54142291749</v>
+        <v>46059.66362765543</v>
       </c>
     </row>
     <row r="53">
@@ -1661,7 +1661,7 @@
         <v>114</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>46059.54151298032</v>
+        <v>46059.66372323789</v>
       </c>
     </row>
     <row r="55">
@@ -1683,7 +1683,7 @@
         <v>250</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>46059.54157081942</v>
+        <v>46059.66378086607</v>
       </c>
     </row>
     <row r="56">
@@ -1705,7 +1705,7 @@
         <v>3608</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>46059.54166684115</v>
+        <v>46059.6638723588</v>
       </c>
     </row>
     <row r="57">
@@ -1727,7 +1727,7 @@
         <v>51642</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>46059.54182196552</v>
+        <v>46059.66401012913</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1749,7 @@
         <v>1019</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>46059.54190043155</v>
+        <v>46059.66408339524</v>
       </c>
     </row>
     <row r="59">
@@ -1771,7 +1771,7 @@
         <v>783</v>
       </c>
       <c r="F59" s="13" t="n">
-        <v>46059.54199695999</v>
+        <v>46059.6641753917</v>
       </c>
     </row>
     <row r="60">
@@ -1793,7 +1793,7 @@
         <v>480</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>46059.54206560506</v>
+        <v>46059.66424451412</v>
       </c>
     </row>
     <row r="61">
@@ -1815,7 +1815,7 @@
         <v>2210</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>46059.54213511149</v>
+        <v>46059.66431442205</v>
       </c>
     </row>
     <row r="62">
@@ -1851,7 +1851,7 @@
         <v>8834</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>46059.54230670146</v>
+        <v>46059.6644813884</v>
       </c>
     </row>
     <row r="64">
@@ -1873,7 +1873,7 @@
         <v>1828</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>46059.54239360971</v>
+        <v>46059.66456593435</v>
       </c>
     </row>
     <row r="65">
@@ -1895,7 +1895,7 @@
         <v>14574</v>
       </c>
       <c r="F65" s="13" t="n">
-        <v>46059.54249177824</v>
+        <v>46059.66466934013</v>
       </c>
     </row>
     <row r="66">
@@ -1917,7 +1917,7 @@
         <v>2817</v>
       </c>
       <c r="F66" s="13" t="n">
-        <v>46059.54258630895</v>
+        <v>46059.66475633642</v>
       </c>
     </row>
     <row r="67">
@@ -1939,7 +1939,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="13" t="n">
-        <v>46059.54266645909</v>
+        <v>46059.66483614993</v>
       </c>
     </row>
     <row r="68">
@@ -1961,7 +1961,7 @@
         <v>1182</v>
       </c>
       <c r="F68" s="13" t="n">
-        <v>46059.542729758</v>
+        <v>46059.66489545829</v>
       </c>
     </row>
     <row r="69">
@@ -1983,7 +1983,7 @@
         <v>3269</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>46059.54281193192</v>
+        <v>46059.66497807414</v>
       </c>
     </row>
     <row r="70">
@@ -2005,7 +2005,7 @@
         <v>2720</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>46059.54292761007</v>
+        <v>46059.66509753927</v>
       </c>
     </row>
     <row r="71">
@@ -2027,7 +2027,7 @@
         <v>13610</v>
       </c>
       <c r="F71" s="13" t="n">
-        <v>46059.54310018446</v>
+        <v>46059.66527406286</v>
       </c>
     </row>
     <row r="72">
@@ -2049,7 +2049,7 @@
         <v>13254</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>46059.54323532723</v>
+        <v>46059.66540584278</v>
       </c>
     </row>
     <row r="73">
@@ -2071,7 +2071,7 @@
         <v>2611</v>
       </c>
       <c r="F73" s="13" t="n">
-        <v>46059.54332129227</v>
+        <v>46059.6654871433</v>
       </c>
     </row>
     <row r="74">
@@ -2093,7 +2093,7 @@
         <v>6244</v>
       </c>
       <c r="F74" s="13" t="n">
-        <v>46059.54342864234</v>
+        <v>46059.66559397498</v>
       </c>
     </row>
     <row r="75">
@@ -2129,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="F76" s="13" t="n">
-        <v>46059.54352542297</v>
+        <v>46059.66568794016</v>
       </c>
     </row>
     <row r="77">
@@ -2151,7 +2151,7 @@
         <v>1037</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>46059.54360769302</v>
+        <v>46059.66576751245</v>
       </c>
     </row>
     <row r="78">
@@ -2173,7 +2173,7 @@
         <v>2470</v>
       </c>
       <c r="F78" s="13" t="n">
-        <v>46059.54368468954</v>
+        <v>46059.66584887746</v>
       </c>
     </row>
     <row r="79">
@@ -2195,7 +2195,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>46059.54379486278</v>
+        <v>46059.66596365748</v>
       </c>
     </row>
     <row r="80">
@@ -2217,7 +2217,7 @@
         <v>2109</v>
       </c>
       <c r="F80" s="13" t="n">
-        <v>46059.5438757622</v>
+        <v>46059.66603936471</v>
       </c>
     </row>
     <row r="81">
@@ -2239,7 +2239,7 @@
         <v>947</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>46059.54397212647</v>
+        <v>46059.66613240093</v>
       </c>
     </row>
     <row r="82">
@@ -2261,7 +2261,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="13" t="n">
-        <v>46059.54404537278</v>
+        <v>46059.66620733516</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2283,7 +2283,7 @@
         <v>314</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>46059.54412229943</v>
+        <v>46059.66628116536</v>
       </c>
     </row>
     <row r="84">
@@ -2305,7 +2305,7 @@
         <v>166</v>
       </c>
       <c r="F84" s="13" t="n">
-        <v>46059.54420464768</v>
+        <v>46059.66637459076</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>5818</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>46059.54426970275</v>
+        <v>46059.66643963302</v>
       </c>
     </row>
     <row r="86">
@@ -2349,7 +2349,7 @@
         <v>4367</v>
       </c>
       <c r="F86" s="13" t="n">
-        <v>46059.54437767991</v>
+        <v>46059.66654673967</v>
       </c>
     </row>
     <row r="87">
@@ -2371,7 +2371,7 @@
         <v>464</v>
       </c>
       <c r="F87" s="13" t="n">
-        <v>46059.54446021897</v>
+        <v>46059.66663027052</v>
       </c>
     </row>
     <row r="88">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="F88" s="13" t="n">
-        <v>46059.5445146705</v>
+        <v>46059.6666884051</v>
       </c>
     </row>
     <row r="89">
@@ -2415,7 +2415,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="13" t="n">
-        <v>46059.54457250851</v>
+        <v>46059.66675099882</v>
       </c>
     </row>
     <row r="90">
@@ -2437,7 +2437,7 @@
         <v>99</v>
       </c>
       <c r="F90" s="13" t="n">
-        <v>46059.54464948243</v>
+        <v>46059.66682430106</v>
       </c>
     </row>
     <row r="91">
@@ -2459,7 +2459,7 @@
         <v>972</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>46059.54473179882</v>
+        <v>46059.666900731</v>
       </c>
     </row>
     <row r="92">
@@ -2481,7 +2481,7 @@
         <v>307</v>
       </c>
       <c r="F92" s="13" t="n">
-        <v>46059.54480959695</v>
+        <v>46059.66697634866</v>
       </c>
     </row>
     <row r="93">
@@ -2503,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>46059.54488303386</v>
+        <v>46059.66704729004</v>
       </c>
     </row>
   </sheetData>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -577,7 +577,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46059.53758419809</v>
+        <v>46066.54801728659</v>
       </c>
     </row>
     <row r="5">
@@ -590,16 +590,16 @@
         <v>83685288</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6622</v>
+        <v>6643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>46059.53773738394</v>
+        <v>46066.54819057966</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>572</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>46059.53777846407</v>
+        <v>46066.54823448076</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>46059.5378540494</v>
+        <v>46059.53785405093</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>46059.53790909077</v>
+        <v>46059.53790908565</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +687,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>46059.53798534392</v>
+        <v>46059.53798534722</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>46059.5380385711</v>
+        <v>46059.53803857639</v>
       </c>
     </row>
     <row r="11">
@@ -731,7 +731,7 @@
         <v>137810</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>46059.53811423812</v>
+        <v>46059.53811423611</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>46059.53817174053</v>
+        <v>46059.53817173611</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +775,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>46059.53821869312</v>
+        <v>46059.53821869213</v>
       </c>
     </row>
     <row r="14">
@@ -797,7 +797,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>46059.53829392797</v>
+        <v>46059.53829392361</v>
       </c>
     </row>
     <row r="15">
@@ -819,7 +819,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>46059.53834422554</v>
+        <v>46059.53834422454</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>46059.53841057991</v>
+        <v>46059.5384105787</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +863,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>46059.53848620679</v>
+        <v>46059.5384862037</v>
       </c>
     </row>
     <row r="18">
@@ -885,7 +885,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>46059.53854931119</v>
+        <v>46059.53854930556</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>46059.53862136353</v>
+        <v>46059.53862136574</v>
       </c>
     </row>
     <row r="20">
@@ -929,7 +929,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>46059.53874835566</v>
+        <v>46059.53874835648</v>
       </c>
     </row>
     <row r="21">
@@ -951,7 +951,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46059.5388638936</v>
+        <v>46059.53886388889</v>
       </c>
     </row>
     <row r="22">
@@ -973,7 +973,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>46059.5389593471</v>
+        <v>46059.53895935185</v>
       </c>
     </row>
     <row r="23">
@@ -995,7 +995,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>46059.53905187188</v>
+        <v>46059.539051875</v>
       </c>
     </row>
     <row r="24">
@@ -1017,7 +1017,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>46059.539147042</v>
+        <v>46059.53914703704</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1039,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>46059.53926362701</v>
+        <v>46059.53926362268</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>46059.53935678787</v>
+        <v>46059.53935678241</v>
       </c>
     </row>
     <row r="27">
@@ -1083,7 +1083,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>46059.53940679853</v>
+        <v>46059.53940679399</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         <v>5158</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>46059.53951991377</v>
+        <v>46059.53951991898</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1127,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>46059.53957918529</v>
+        <v>46059.53957918981</v>
       </c>
     </row>
     <row r="30">
@@ -1149,7 +1149,7 @@
         <v>129</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>46059.53963621831</v>
+        <v>46059.53963621528</v>
       </c>
     </row>
     <row r="31">
@@ -1171,7 +1171,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>46059.53976903058</v>
+        <v>46059.53976902778</v>
       </c>
     </row>
     <row r="32">
@@ -1193,7 +1193,7 @@
         <v>4981</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>46059.53988654909</v>
+        <v>46059.53988655093</v>
       </c>
     </row>
     <row r="33">
@@ -1215,7 +1215,7 @@
         <v>3970</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>46059.53997425882</v>
+        <v>46059.53997425926</v>
       </c>
     </row>
     <row r="34">
@@ -1237,7 +1237,7 @@
         <v>21854</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>46059.54006081788</v>
+        <v>46059.54006082176</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1259,7 @@
         <v>2379</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>46059.54014606655</v>
+        <v>46059.54014606481</v>
       </c>
     </row>
     <row r="36">
@@ -1281,7 +1281,7 @@
         <v>8348</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>46059.54024438324</v>
+        <v>46059.54024438658</v>
       </c>
     </row>
     <row r="37">
@@ -1303,7 +1303,7 @@
         <v>36874</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>46059.54035716671</v>
+        <v>46059.54035716435</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>1046</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>46059.54044925128</v>
+        <v>46059.54044924769</v>
       </c>
     </row>
     <row r="39">
@@ -1347,7 +1347,7 @@
         <v>3810</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>46059.54052925901</v>
+        <v>46059.54052925926</v>
       </c>
     </row>
     <row r="40">
@@ -1369,7 +1369,7 @@
         <v>3736</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>46059.54058303366</v>
+        <v>46059.54058303241</v>
       </c>
     </row>
     <row r="41">
@@ -1391,7 +1391,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>46059.54062452113</v>
+        <v>46059.54062452546</v>
       </c>
     </row>
     <row r="42">
@@ -1413,7 +1413,7 @@
         <v>213</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>46059.54068107347</v>
+        <v>46059.54068107639</v>
       </c>
     </row>
     <row r="43">
@@ -1435,7 +1435,7 @@
         <v>336</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>46059.54075081806</v>
+        <v>46059.54075082176</v>
       </c>
     </row>
     <row r="44">
@@ -1457,7 +1457,7 @@
         <v>1823</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>46059.5408242816</v>
+        <v>46059.54082428241</v>
       </c>
     </row>
     <row r="45">
@@ -1479,7 +1479,7 @@
         <v>854</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>46059.54089443976</v>
+        <v>46059.54089444444</v>
       </c>
     </row>
     <row r="46">
@@ -1501,7 +1501,7 @@
         <v>10308</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>46059.54099375212</v>
+        <v>46059.54099375</v>
       </c>
     </row>
     <row r="47">
@@ -1523,7 +1523,7 @@
         <v>1900</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>46059.54106981124</v>
+        <v>46059.54106981481</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>1462</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>46059.54115563</v>
+        <v>46059.541155625</v>
       </c>
     </row>
     <row r="49">
@@ -1567,7 +1567,7 @@
         <v>2758</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>46059.54124026495</v>
+        <v>46059.5412402662</v>
       </c>
     </row>
     <row r="50">
@@ -1589,7 +1589,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="13" t="n">
-        <v>46059.54129087304</v>
+        <v>46059.54129086806</v>
       </c>
     </row>
     <row r="51">
@@ -1625,7 +1625,7 @@
         <v>3353</v>
       </c>
       <c r="F52" s="13" t="n">
-        <v>46059.54142291749</v>
+        <v>46059.54142291666</v>
       </c>
     </row>
     <row r="53">
@@ -1661,7 +1661,7 @@
         <v>114</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>46059.54151298032</v>
+        <v>46059.54151297454</v>
       </c>
     </row>
     <row r="55">
@@ -1683,7 +1683,7 @@
         <v>250</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>46059.54157081942</v>
+        <v>46059.54157082176</v>
       </c>
     </row>
     <row r="56">
@@ -1705,7 +1705,7 @@
         <v>3608</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>46059.54166684115</v>
+        <v>46059.54166684028</v>
       </c>
     </row>
     <row r="57">
@@ -1727,7 +1727,7 @@
         <v>51642</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>46059.54182196552</v>
+        <v>46059.54182196759</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1749,7 @@
         <v>1019</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>46059.54190043155</v>
+        <v>46059.54190042824</v>
       </c>
     </row>
     <row r="59">
@@ -1771,7 +1771,7 @@
         <v>783</v>
       </c>
       <c r="F59" s="13" t="n">
-        <v>46059.54199695999</v>
+        <v>46059.54199695602</v>
       </c>
     </row>
     <row r="60">
@@ -1793,7 +1793,7 @@
         <v>480</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>46059.54206560506</v>
+        <v>46059.54206560185</v>
       </c>
     </row>
     <row r="61">
@@ -1815,7 +1815,7 @@
         <v>2210</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>46059.54213511149</v>
+        <v>46059.54213511574</v>
       </c>
     </row>
     <row r="62">
@@ -1851,7 +1851,7 @@
         <v>8834</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>46059.54230670146</v>
+        <v>46059.54230670139</v>
       </c>
     </row>
     <row r="64">
@@ -1873,7 +1873,7 @@
         <v>1828</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>46059.54239360971</v>
+        <v>46059.54239361111</v>
       </c>
     </row>
     <row r="65">
@@ -1895,7 +1895,7 @@
         <v>14574</v>
       </c>
       <c r="F65" s="13" t="n">
-        <v>46059.54249177824</v>
+        <v>46059.54249178241</v>
       </c>
     </row>
     <row r="66">
@@ -1917,7 +1917,7 @@
         <v>2817</v>
       </c>
       <c r="F66" s="13" t="n">
-        <v>46059.54258630895</v>
+        <v>46059.54258630787</v>
       </c>
     </row>
     <row r="67">
@@ -1939,7 +1939,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="13" t="n">
-        <v>46059.54266645909</v>
+        <v>46059.54266645834</v>
       </c>
     </row>
     <row r="68">
@@ -1961,7 +1961,7 @@
         <v>1182</v>
       </c>
       <c r="F68" s="13" t="n">
-        <v>46059.542729758</v>
+        <v>46059.54272975695</v>
       </c>
     </row>
     <row r="69">
@@ -1983,7 +1983,7 @@
         <v>3269</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>46059.54281193192</v>
+        <v>46059.54281193287</v>
       </c>
     </row>
     <row r="70">
@@ -2005,7 +2005,7 @@
         <v>2720</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>46059.54292761007</v>
+        <v>46059.54292761574</v>
       </c>
     </row>
     <row r="71">
@@ -2027,7 +2027,7 @@
         <v>13610</v>
       </c>
       <c r="F71" s="13" t="n">
-        <v>46059.54310018446</v>
+        <v>46059.54310018518</v>
       </c>
     </row>
     <row r="72">
@@ -2049,7 +2049,7 @@
         <v>13254</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>46059.54323532723</v>
+        <v>46059.54323532408</v>
       </c>
     </row>
     <row r="73">
@@ -2071,7 +2071,7 @@
         <v>2611</v>
       </c>
       <c r="F73" s="13" t="n">
-        <v>46059.54332129227</v>
+        <v>46059.5433212963</v>
       </c>
     </row>
     <row r="74">
@@ -2093,7 +2093,7 @@
         <v>6244</v>
       </c>
       <c r="F74" s="13" t="n">
-        <v>46059.54342864234</v>
+        <v>46059.54342864583</v>
       </c>
     </row>
     <row r="75">
@@ -2129,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="F76" s="13" t="n">
-        <v>46059.54352542297</v>
+        <v>46059.54352542824</v>
       </c>
     </row>
     <row r="77">
@@ -2151,7 +2151,7 @@
         <v>1037</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>46059.54360769302</v>
+        <v>46059.54360769676</v>
       </c>
     </row>
     <row r="78">
@@ -2173,7 +2173,7 @@
         <v>2470</v>
       </c>
       <c r="F78" s="13" t="n">
-        <v>46059.54368468954</v>
+        <v>46059.5436846875</v>
       </c>
     </row>
     <row r="79">
@@ -2195,7 +2195,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>46059.54379486278</v>
+        <v>46059.54379486111</v>
       </c>
     </row>
     <row r="80">
@@ -2217,7 +2217,7 @@
         <v>2109</v>
       </c>
       <c r="F80" s="13" t="n">
-        <v>46059.5438757622</v>
+        <v>46059.54387576389</v>
       </c>
     </row>
     <row r="81">
@@ -2239,7 +2239,7 @@
         <v>947</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>46059.54397212647</v>
+        <v>46059.54397212963</v>
       </c>
     </row>
     <row r="82">
@@ -2261,7 +2261,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="13" t="n">
-        <v>46059.54404537278</v>
+        <v>46059.54404537037</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2283,7 +2283,7 @@
         <v>314</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>46059.54412229943</v>
+        <v>46059.54412230324</v>
       </c>
     </row>
     <row r="84">
@@ -2305,7 +2305,7 @@
         <v>166</v>
       </c>
       <c r="F84" s="13" t="n">
-        <v>46059.54420464768</v>
+        <v>46059.54420465278</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>5818</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>46059.54426970275</v>
+        <v>46059.54426969907</v>
       </c>
     </row>
     <row r="86">
@@ -2349,7 +2349,7 @@
         <v>4367</v>
       </c>
       <c r="F86" s="13" t="n">
-        <v>46059.54437767991</v>
+        <v>46059.54437768518</v>
       </c>
     </row>
     <row r="87">
@@ -2371,7 +2371,7 @@
         <v>464</v>
       </c>
       <c r="F87" s="13" t="n">
-        <v>46059.54446021897</v>
+        <v>46059.54446021991</v>
       </c>
     </row>
     <row r="88">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="F88" s="13" t="n">
-        <v>46059.5445146705</v>
+        <v>46059.54451467592</v>
       </c>
     </row>
     <row r="89">
@@ -2415,7 +2415,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="13" t="n">
-        <v>46059.54457250851</v>
+        <v>46059.54457251157</v>
       </c>
     </row>
     <row r="90">
@@ -2437,7 +2437,7 @@
         <v>99</v>
       </c>
       <c r="F90" s="13" t="n">
-        <v>46059.54464948243</v>
+        <v>46059.54464947917</v>
       </c>
     </row>
     <row r="91">
@@ -2459,7 +2459,7 @@
         <v>972</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>46059.54473179882</v>
+        <v>46059.54473179398</v>
       </c>
     </row>
     <row r="92">
@@ -2481,7 +2481,7 @@
         <v>307</v>
       </c>
       <c r="F92" s="13" t="n">
-        <v>46059.54480959695</v>
+        <v>46059.54480959491</v>
       </c>
     </row>
     <row r="93">
@@ -2503,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>46059.54488303386</v>
+        <v>46059.54488303241</v>
       </c>
     </row>
   </sheetData>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -577,7 +577,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>46059.53758419809</v>
+        <v>46070.42299939441</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +599,7 @@
         <v>10613</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>46059.53773738394</v>
+        <v>46070.42314748513</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>46059.53777846407</v>
+        <v>46070.42319123976</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>46059.5378540494</v>
+        <v>46070.42326067161</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>46059.53790909077</v>
+        <v>46070.42331355389</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +687,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>46059.53798534392</v>
+        <v>46070.42338540662</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>46059.5380385711</v>
+        <v>46070.42343720537</v>
       </c>
     </row>
     <row r="11">
@@ -731,7 +731,7 @@
         <v>137810</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>46059.53811423812</v>
+        <v>46070.4235111242</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>46059.53817174053</v>
+        <v>46070.42357158203</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +775,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>46059.53821869312</v>
+        <v>46070.42362089707</v>
       </c>
     </row>
     <row r="14">
@@ -797,7 +797,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>46059.53829392797</v>
+        <v>46070.42369924061</v>
       </c>
     </row>
     <row r="15">
@@ -819,7 +819,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>46059.53834422554</v>
+        <v>46070.42375042053</v>
       </c>
     </row>
     <row r="16">
@@ -841,7 +841,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>46059.53841057991</v>
+        <v>46070.42382994222</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +863,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>46059.53848620679</v>
+        <v>46070.42391331329</v>
       </c>
     </row>
     <row r="18">
@@ -885,7 +885,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>46059.53854931119</v>
+        <v>46070.42398513359</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>46059.53862136353</v>
+        <v>46070.42406298377</v>
       </c>
     </row>
     <row r="20">
@@ -929,7 +929,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>46059.53874835566</v>
+        <v>46070.42419289447</v>
       </c>
     </row>
     <row r="21">
@@ -951,7 +951,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46059.5388638936</v>
+        <v>46070.42430322522</v>
       </c>
     </row>
     <row r="22">
@@ -973,7 +973,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>46059.5389593471</v>
+        <v>46070.42440662289</v>
       </c>
     </row>
     <row r="23">
@@ -995,7 +995,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>46059.53905187188</v>
+        <v>46070.42450216807</v>
       </c>
     </row>
     <row r="24">
@@ -1017,7 +1017,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>46059.539147042</v>
+        <v>46070.42460158817</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1039,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>46059.53926362701</v>
+        <v>46070.42473051276</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>46059.53935678787</v>
+        <v>46070.42481466572</v>
       </c>
     </row>
     <row r="27">
@@ -1083,7 +1083,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>46059.53940679853</v>
+        <v>46070.42486566079</v>
       </c>
     </row>
     <row r="28">
@@ -1096,16 +1096,16 @@
         <v>77090997</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>3188</v>
+        <v>3218</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5148</v>
+        <v>5181</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>5158</v>
+        <v>5191</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>46059.53951991377</v>
+        <v>46070.42498027754</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1127,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>46059.53957918529</v>
+        <v>46070.4250428523</v>
       </c>
     </row>
     <row r="30">
@@ -1149,7 +1149,7 @@
         <v>129</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>46059.53963621831</v>
+        <v>46070.42510479491</v>
       </c>
     </row>
     <row r="31">
@@ -1171,7 +1171,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>46059.53976903058</v>
+        <v>46070.42523316684</v>
       </c>
     </row>
     <row r="32">
@@ -1193,7 +1193,7 @@
         <v>4981</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>46059.53988654909</v>
+        <v>46070.42535917611</v>
       </c>
     </row>
     <row r="33">
@@ -1215,7 +1215,7 @@
         <v>3970</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>46059.53997425882</v>
+        <v>46070.42545075443</v>
       </c>
     </row>
     <row r="34">
@@ -1237,7 +1237,7 @@
         <v>21854</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>46059.54006081788</v>
+        <v>46070.42553927989</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1259,7 @@
         <v>2379</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>46059.54014606655</v>
+        <v>46070.42562687716</v>
       </c>
     </row>
     <row r="36">
@@ -1281,7 +1281,7 @@
         <v>8348</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>46059.54024438324</v>
+        <v>46070.42571827173</v>
       </c>
     </row>
     <row r="37">
@@ -1303,7 +1303,7 @@
         <v>36874</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>46059.54035716671</v>
+        <v>46070.42583082589</v>
       </c>
     </row>
     <row r="38">
@@ -1319,13 +1319,13 @@
         <v>408</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1046</v>
+        <v>986</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>1046</v>
+        <v>986</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>46059.54044925128</v>
+        <v>46070.42593028995</v>
       </c>
     </row>
     <row r="39">
@@ -1338,16 +1338,16 @@
         <v>77075105</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3540</v>
+        <v>3498</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3810</v>
+        <v>3768</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>3810</v>
+        <v>3768</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>46059.54052925901</v>
+        <v>46070.42601507147</v>
       </c>
     </row>
     <row r="40">
@@ -1369,7 +1369,7 @@
         <v>3736</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>46059.54058303366</v>
+        <v>46070.42607123272</v>
       </c>
     </row>
     <row r="41">
@@ -1391,7 +1391,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>46059.54062452113</v>
+        <v>46070.42610928408</v>
       </c>
     </row>
     <row r="42">
@@ -1404,16 +1404,16 @@
         <v>77062492</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>46059.54068107347</v>
+        <v>46070.42616310182</v>
       </c>
     </row>
     <row r="43">
@@ -1426,16 +1426,16 @@
         <v>81566907</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="F43" s="13" t="n">
-        <v>46059.54075081806</v>
+        <v>46070.4262210638</v>
       </c>
     </row>
     <row r="44">
@@ -1457,7 +1457,7 @@
         <v>1823</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>46059.5408242816</v>
+        <v>46070.42630426169</v>
       </c>
     </row>
     <row r="45">
@@ -1479,7 +1479,7 @@
         <v>854</v>
       </c>
       <c r="F45" s="13" t="n">
-        <v>46059.54089443976</v>
+        <v>46070.42637969193</v>
       </c>
     </row>
     <row r="46">
@@ -1501,7 +1501,7 @@
         <v>10308</v>
       </c>
       <c r="F46" s="13" t="n">
-        <v>46059.54099375212</v>
+        <v>46070.42648631479</v>
       </c>
     </row>
     <row r="47">
@@ -1523,7 +1523,7 @@
         <v>1900</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>46059.54106981124</v>
+        <v>46070.42656928622</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>1462</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>46059.54115563</v>
+        <v>46070.42665692345</v>
       </c>
     </row>
     <row r="49">
@@ -1567,7 +1567,7 @@
         <v>2758</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>46059.54124026495</v>
+        <v>46070.42674966807</v>
       </c>
     </row>
     <row r="50">
@@ -1589,7 +1589,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="13" t="n">
-        <v>46059.54129087304</v>
+        <v>46070.42680369654</v>
       </c>
     </row>
     <row r="51">
@@ -1625,7 +1625,7 @@
         <v>3353</v>
       </c>
       <c r="F52" s="13" t="n">
-        <v>46059.54142291749</v>
+        <v>46070.42695058492</v>
       </c>
     </row>
     <row r="53">
@@ -1661,7 +1661,7 @@
         <v>114</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>46059.54151298032</v>
+        <v>46070.4270490033</v>
       </c>
     </row>
     <row r="55">
@@ -1683,7 +1683,7 @@
         <v>250</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>46059.54157081942</v>
+        <v>46070.42710550846</v>
       </c>
     </row>
     <row r="56">
@@ -1705,7 +1705,7 @@
         <v>3608</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>46059.54166684115</v>
+        <v>46070.42720155889</v>
       </c>
     </row>
     <row r="57">
@@ -1727,7 +1727,7 @@
         <v>51642</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>46059.54182196552</v>
+        <v>46070.42734648701</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1749,7 @@
         <v>1019</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>46059.54190043155</v>
+        <v>46070.4274384501</v>
       </c>
     </row>
     <row r="59">
@@ -1771,7 +1771,7 @@
         <v>783</v>
       </c>
       <c r="F59" s="13" t="n">
-        <v>46059.54199695999</v>
+        <v>46070.42753954885</v>
       </c>
     </row>
     <row r="60">
@@ -1793,7 +1793,7 @@
         <v>480</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>46059.54206560506</v>
+        <v>46070.42762590993</v>
       </c>
     </row>
     <row r="61">
@@ -1815,7 +1815,7 @@
         <v>2210</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>46059.54213511149</v>
+        <v>46070.42770588307</v>
       </c>
     </row>
     <row r="62">
@@ -1851,7 +1851,7 @@
         <v>8834</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>46059.54230670146</v>
+        <v>46070.42788472724</v>
       </c>
     </row>
     <row r="64">
@@ -1873,7 +1873,7 @@
         <v>1828</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>46059.54239360971</v>
+        <v>46070.4279740914</v>
       </c>
     </row>
     <row r="65">
@@ -1895,7 +1895,7 @@
         <v>14574</v>
       </c>
       <c r="F65" s="13" t="n">
-        <v>46059.54249177824</v>
+        <v>46070.42807290759</v>
       </c>
     </row>
     <row r="66">
@@ -1917,7 +1917,7 @@
         <v>2817</v>
       </c>
       <c r="F66" s="13" t="n">
-        <v>46059.54258630895</v>
+        <v>46070.4281615732</v>
       </c>
     </row>
     <row r="67">
@@ -1939,7 +1939,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="13" t="n">
-        <v>46059.54266645909</v>
+        <v>46070.42824394332</v>
       </c>
     </row>
     <row r="68">
@@ -1961,7 +1961,7 @@
         <v>1182</v>
       </c>
       <c r="F68" s="13" t="n">
-        <v>46059.542729758</v>
+        <v>46070.42830657415</v>
       </c>
     </row>
     <row r="69">
@@ -1983,7 +1983,7 @@
         <v>3269</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>46059.54281193192</v>
+        <v>46070.4283959255</v>
       </c>
     </row>
     <row r="70">
@@ -2005,7 +2005,7 @@
         <v>2720</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>46059.54292761007</v>
+        <v>46070.42852547038</v>
       </c>
     </row>
     <row r="71">
@@ -2027,7 +2027,7 @@
         <v>13610</v>
       </c>
       <c r="F71" s="13" t="n">
-        <v>46059.54310018446</v>
+        <v>46070.4287071809</v>
       </c>
     </row>
     <row r="72">
@@ -2049,7 +2049,7 @@
         <v>13254</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>46059.54323532723</v>
+        <v>46070.42885080179</v>
       </c>
     </row>
     <row r="73">
@@ -2071,7 +2071,7 @@
         <v>2611</v>
       </c>
       <c r="F73" s="13" t="n">
-        <v>46059.54332129227</v>
+        <v>46070.42893821342</v>
       </c>
     </row>
     <row r="74">
@@ -2093,7 +2093,7 @@
         <v>6244</v>
       </c>
       <c r="F74" s="13" t="n">
-        <v>46059.54342864234</v>
+        <v>46070.42904777871</v>
       </c>
     </row>
     <row r="75">
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F76" s="13" t="n">
-        <v>46059.54352542297</v>
+        <v>46070.42915648616</v>
       </c>
     </row>
     <row r="77">
@@ -2151,7 +2151,7 @@
         <v>1037</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>46059.54360769302</v>
+        <v>46070.42924706991</v>
       </c>
     </row>
     <row r="78">
@@ -2173,7 +2173,7 @@
         <v>2470</v>
       </c>
       <c r="F78" s="13" t="n">
-        <v>46059.54368468954</v>
+        <v>46070.4293267486</v>
       </c>
     </row>
     <row r="79">
@@ -2195,7 +2195,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>46059.54379486278</v>
+        <v>46070.42944688383</v>
       </c>
     </row>
     <row r="80">
@@ -2217,7 +2217,7 @@
         <v>2109</v>
       </c>
       <c r="F80" s="13" t="n">
-        <v>46059.5438757622</v>
+        <v>46070.42953841156</v>
       </c>
     </row>
     <row r="81">
@@ -2239,7 +2239,7 @@
         <v>947</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>46059.54397212647</v>
+        <v>46070.42964271192</v>
       </c>
     </row>
     <row r="82">
@@ -2261,7 +2261,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="13" t="n">
-        <v>46059.54404537278</v>
+        <v>46070.42972135734</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2283,7 +2283,7 @@
         <v>314</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>46059.54412229943</v>
+        <v>46070.42980380478</v>
       </c>
     </row>
     <row r="84">
@@ -2305,7 +2305,7 @@
         <v>166</v>
       </c>
       <c r="F84" s="13" t="n">
-        <v>46059.54420464768</v>
+        <v>46070.4298934199</v>
       </c>
     </row>
     <row r="85">
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>5818</v>
+        <v>5849</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>46059.54426970275</v>
+        <v>46070.42995876031</v>
       </c>
     </row>
     <row r="86">
@@ -2349,7 +2349,7 @@
         <v>4367</v>
       </c>
       <c r="F86" s="13" t="n">
-        <v>46059.54437767991</v>
+        <v>46070.43007143022</v>
       </c>
     </row>
     <row r="87">
@@ -2371,7 +2371,7 @@
         <v>464</v>
       </c>
       <c r="F87" s="13" t="n">
-        <v>46059.54446021897</v>
+        <v>46070.43017177407</v>
       </c>
     </row>
     <row r="88">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="F88" s="13" t="n">
-        <v>46059.5445146705</v>
+        <v>46070.43023059733</v>
       </c>
     </row>
     <row r="89">
@@ -2406,16 +2406,16 @@
         <v>77093189</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>50</v>
+        <v>808</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>50</v>
+        <v>16690</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>50</v>
+        <v>16690</v>
       </c>
       <c r="F89" s="13" t="n">
-        <v>46059.54457250851</v>
+        <v>46070.43032424837</v>
       </c>
     </row>
     <row r="90">
@@ -2437,7 +2437,7 @@
         <v>99</v>
       </c>
       <c r="F90" s="13" t="n">
-        <v>46059.54464948243</v>
+        <v>46070.4304037788</v>
       </c>
     </row>
     <row r="91">
@@ -2459,7 +2459,7 @@
         <v>972</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>46059.54473179882</v>
+        <v>46070.43048942077</v>
       </c>
     </row>
     <row r="92">
@@ -2472,16 +2472,16 @@
         <v>77072365</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F92" s="13" t="n">
-        <v>46059.54480959695</v>
+        <v>46070.43058108705</v>
       </c>
     </row>
     <row r="93">
@@ -2503,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>46059.54488303386</v>
+        <v>46070.43065729294</v>
       </c>
     </row>
   </sheetData>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -576,7 +576,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="14" t="n">
-        <v>46070.56397791534</v>
+        <v>46077.46606808516</v>
       </c>
     </row>
     <row r="5">
@@ -589,16 +589,16 @@
         <v>83685288</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6622</v>
+        <v>6618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10613</v>
+        <v>10609</v>
       </c>
       <c r="F5" s="14" t="n">
-        <v>46070.56413517979</v>
+        <v>46077.46622377577</v>
       </c>
     </row>
     <row r="6">
@@ -614,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F6" s="14" t="n">
-        <v>46070.56417670138</v>
+        <v>46077.46626560819</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="14" t="n">
-        <v>46070.56425074603</v>
+        <v>46077.46634393556</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="14" t="n">
-        <v>46070.5643038826</v>
+        <v>46077.46639662455</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="14" t="n">
-        <v>46070.56437731634</v>
+        <v>46077.46647018787</v>
       </c>
     </row>
     <row r="10">
@@ -708,7 +708,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="14" t="n">
-        <v>46070.56443346458</v>
+        <v>46077.46652208106</v>
       </c>
     </row>
     <row r="11">
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>137810</v>
+        <v>137802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137810</v>
+        <v>137802</v>
       </c>
       <c r="F11" s="14" t="n">
-        <v>46070.56450485541</v>
+        <v>46077.46659231871</v>
       </c>
     </row>
     <row r="12">
@@ -752,7 +752,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>46070.56455967225</v>
+        <v>46077.46664875133</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +774,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>46070.56461318524</v>
+        <v>46077.46670596543</v>
       </c>
     </row>
     <row r="14">
@@ -796,7 +796,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>46070.56469081501</v>
+        <v>46077.46678744127</v>
       </c>
     </row>
     <row r="15">
@@ -818,7 +818,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>46070.5647466451</v>
+        <v>46077.46683844421</v>
       </c>
     </row>
     <row r="16">
@@ -840,7 +840,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>46070.56482193487</v>
+        <v>46077.46691147962</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +862,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="14" t="n">
-        <v>46070.56490549794</v>
+        <v>46077.46699656581</v>
       </c>
     </row>
     <row r="18">
@@ -884,7 +884,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="14" t="n">
-        <v>46070.564969985</v>
+        <v>46077.46706443272</v>
       </c>
     </row>
     <row r="19">
@@ -906,7 +906,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="14" t="n">
-        <v>46070.56504533659</v>
+        <v>46077.46714182491</v>
       </c>
     </row>
     <row r="20">
@@ -928,7 +928,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="14" t="n">
-        <v>46070.56517210941</v>
+        <v>46077.46727770412</v>
       </c>
     </row>
     <row r="21">
@@ -950,7 +950,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>46070.56527003272</v>
+        <v>46077.46738170412</v>
       </c>
     </row>
     <row r="22">
@@ -972,7 +972,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="14" t="n">
-        <v>46070.56536983637</v>
+        <v>46077.4674867353</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>46070.56546662792</v>
+        <v>46077.46757836912</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="14" t="n">
-        <v>46070.56555865231</v>
+        <v>46077.4676749947</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>46070.56567989021</v>
+        <v>46077.46779366671</v>
       </c>
     </row>
     <row r="26">
@@ -1060,7 +1060,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="14" t="n">
-        <v>46070.56576191794</v>
+        <v>46077.4678849999</v>
       </c>
     </row>
     <row r="27">
@@ -1082,7 +1082,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>46070.56580971036</v>
+        <v>46077.46793999975</v>
       </c>
     </row>
     <row r="28">
@@ -1095,16 +1095,16 @@
         <v>77090997</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>3218</v>
+        <v>3188</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5181</v>
+        <v>5148</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>5191</v>
+        <v>5158</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>46070.56593868933</v>
+        <v>46077.46805526641</v>
       </c>
     </row>
     <row r="29">
@@ -1126,7 +1126,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="14" t="n">
-        <v>46070.56599779372</v>
+        <v>46077.46811345909</v>
       </c>
     </row>
     <row r="30">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F30" s="14" t="n">
-        <v>46070.56605362414</v>
+        <v>46077.46818710918</v>
       </c>
     </row>
     <row r="31">
@@ -1170,7 +1170,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="14" t="n">
-        <v>46070.56617640374</v>
+        <v>46077.46833185334</v>
       </c>
     </row>
     <row r="32">
@@ -1192,7 +1192,7 @@
         <v>4981</v>
       </c>
       <c r="F32" s="14" t="n">
-        <v>46070.56629923615</v>
+        <v>46077.46844795928</v>
       </c>
     </row>
     <row r="33">
@@ -1214,7 +1214,7 @@
         <v>3970</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>46070.56640336573</v>
+        <v>46077.46853460908</v>
       </c>
     </row>
     <row r="34">
@@ -1236,7 +1236,7 @@
         <v>21854</v>
       </c>
       <c r="F34" s="14" t="n">
-        <v>46070.56649236412</v>
+        <v>46077.46862805667</v>
       </c>
     </row>
     <row r="35">
@@ -1258,7 +1258,7 @@
         <v>2379</v>
       </c>
       <c r="F35" s="14" t="n">
-        <v>46070.56657585095</v>
+        <v>46077.46871319177</v>
       </c>
     </row>
     <row r="36">
@@ -1280,7 +1280,7 @@
         <v>8348</v>
       </c>
       <c r="F36" s="14" t="n">
-        <v>46070.56667585051</v>
+        <v>46077.46881306272</v>
       </c>
     </row>
     <row r="37">
@@ -1302,7 +1302,7 @@
         <v>36874</v>
       </c>
       <c r="F37" s="14" t="n">
-        <v>46070.56678458684</v>
+        <v>46077.46891912825</v>
       </c>
     </row>
     <row r="38">
@@ -1315,16 +1315,16 @@
         <v>77074831</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F38" s="14" t="n">
-        <v>46070.56687863235</v>
+        <v>46077.46900769171</v>
       </c>
     </row>
     <row r="39">
@@ -1337,16 +1337,16 @@
         <v>77075105</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3498</v>
+        <v>3516</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3768</v>
+        <v>3786</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>3768</v>
+        <v>3786</v>
       </c>
       <c r="F39" s="14" t="n">
-        <v>46070.56696106966</v>
+        <v>46077.46908626775</v>
       </c>
     </row>
     <row r="40">
@@ -1368,7 +1368,7 @@
         <v>3736</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>46070.56701790266</v>
+        <v>46077.46914054921</v>
       </c>
     </row>
     <row r="41">
@@ -1390,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="14" t="n">
-        <v>46070.56705585795</v>
+        <v>46077.46918008918</v>
       </c>
     </row>
     <row r="42">
@@ -1412,7 +1412,7 @@
         <v>114</v>
       </c>
       <c r="F42" s="14" t="n">
-        <v>46070.56710786617</v>
+        <v>46077.46923472254</v>
       </c>
     </row>
     <row r="43">
@@ -1434,7 +1434,7 @@
         <v>247</v>
       </c>
       <c r="F43" s="14" t="n">
-        <v>46070.56716589248</v>
+        <v>46077.46929349176</v>
       </c>
     </row>
     <row r="44">
@@ -1456,7 +1456,7 @@
         <v>1823</v>
       </c>
       <c r="F44" s="14" t="n">
-        <v>46070.56723733251</v>
+        <v>46077.46936656618</v>
       </c>
     </row>
     <row r="45">
@@ -1478,7 +1478,7 @@
         <v>854</v>
       </c>
       <c r="F45" s="14" t="n">
-        <v>46070.56730473698</v>
+        <v>46077.46943589273</v>
       </c>
     </row>
     <row r="46">
@@ -1500,7 +1500,7 @@
         <v>10308</v>
       </c>
       <c r="F46" s="14" t="n">
-        <v>46070.56740818294</v>
+        <v>46077.46953666535</v>
       </c>
     </row>
     <row r="47">
@@ -1522,7 +1522,7 @@
         <v>1900</v>
       </c>
       <c r="F47" s="14" t="n">
-        <v>46070.56748995545</v>
+        <v>46077.46961955244</v>
       </c>
     </row>
     <row r="48">
@@ -1544,7 +1544,7 @@
         <v>1462</v>
       </c>
       <c r="F48" s="14" t="n">
-        <v>46070.56758308376</v>
+        <v>46077.46970375202</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>754</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>2758</v>
+        <v>2518</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>2758</v>
+        <v>2518</v>
       </c>
       <c r="F49" s="14" t="n">
-        <v>46070.56767129555</v>
+        <v>46077.46978886743</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="14" t="n">
-        <v>46070.56772526258</v>
+        <v>46077.46984163891</v>
       </c>
     </row>
     <row r="51">
@@ -1624,7 +1624,7 @@
         <v>3353</v>
       </c>
       <c r="F52" s="14" t="n">
-        <v>46070.5678716953</v>
+        <v>46077.46997662905</v>
       </c>
     </row>
     <row r="53">
@@ -1660,7 +1660,7 @@
         <v>114</v>
       </c>
       <c r="F54" s="14" t="n">
-        <v>46070.56795987104</v>
+        <v>46077.47006947265</v>
       </c>
     </row>
     <row r="55">
@@ -1682,7 +1682,7 @@
         <v>250</v>
       </c>
       <c r="F55" s="14" t="n">
-        <v>46070.56801689609</v>
+        <v>46077.47012795078</v>
       </c>
     </row>
     <row r="56">
@@ -1704,7 +1704,7 @@
         <v>3608</v>
       </c>
       <c r="F56" s="14" t="n">
-        <v>46070.56811076013</v>
+        <v>46077.47021784855</v>
       </c>
     </row>
     <row r="57">
@@ -1726,7 +1726,7 @@
         <v>51642</v>
       </c>
       <c r="F57" s="14" t="n">
-        <v>46070.56824537259</v>
+        <v>46077.47035892984</v>
       </c>
     </row>
     <row r="58">
@@ -1748,7 +1748,7 @@
         <v>1019</v>
       </c>
       <c r="F58" s="14" t="n">
-        <v>46070.56832797257</v>
+        <v>46077.47044115701</v>
       </c>
     </row>
     <row r="59">
@@ -1770,7 +1770,7 @@
         <v>783</v>
       </c>
       <c r="F59" s="14" t="n">
-        <v>46070.56842222263</v>
+        <v>46077.47054118818</v>
       </c>
     </row>
     <row r="60">
@@ -1792,7 +1792,7 @@
         <v>480</v>
       </c>
       <c r="F60" s="14" t="n">
-        <v>46070.56849178491</v>
+        <v>46077.47061573966</v>
       </c>
     </row>
     <row r="61">
@@ -1814,7 +1814,7 @@
         <v>2210</v>
       </c>
       <c r="F61" s="14" t="n">
-        <v>46070.56856235005</v>
+        <v>46077.47069145873</v>
       </c>
     </row>
     <row r="62">
@@ -1850,7 +1850,7 @@
         <v>8834</v>
       </c>
       <c r="F63" s="14" t="n">
-        <v>46070.5687350627</v>
+        <v>46077.47086494933</v>
       </c>
     </row>
     <row r="64">
@@ -1872,7 +1872,7 @@
         <v>1828</v>
       </c>
       <c r="F64" s="14" t="n">
-        <v>46070.56881856925</v>
+        <v>46077.47094917377</v>
       </c>
     </row>
     <row r="65">
@@ -1894,7 +1894,7 @@
         <v>14574</v>
       </c>
       <c r="F65" s="14" t="n">
-        <v>46070.56891501946</v>
+        <v>46077.47105578081</v>
       </c>
     </row>
     <row r="66">
@@ -1907,16 +1907,16 @@
         <v>77063314</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>2168</v>
+        <v>2174</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>2817</v>
+        <v>2823</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>2817</v>
+        <v>2823</v>
       </c>
       <c r="F66" s="14" t="n">
-        <v>46070.56900300359</v>
+        <v>46077.47114208602</v>
       </c>
     </row>
     <row r="67">
@@ -1938,7 +1938,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="14" t="n">
-        <v>46070.56907851346</v>
+        <v>46077.47122260832</v>
       </c>
     </row>
     <row r="68">
@@ -1960,7 +1960,7 @@
         <v>1182</v>
       </c>
       <c r="F68" s="14" t="n">
-        <v>46070.56913976167</v>
+        <v>46077.47128458802</v>
       </c>
     </row>
     <row r="69">
@@ -1982,7 +1982,7 @@
         <v>3269</v>
       </c>
       <c r="F69" s="14" t="n">
-        <v>46070.56922137283</v>
+        <v>46077.47136633997</v>
       </c>
     </row>
     <row r="70">
@@ -2004,7 +2004,7 @@
         <v>2720</v>
       </c>
       <c r="F70" s="14" t="n">
-        <v>46070.56934861386</v>
+        <v>46077.47149185806</v>
       </c>
     </row>
     <row r="71">
@@ -2017,7 +2017,7 @@
         <v>78642100</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>1075</v>
+        <v>1015</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>13610</v>
@@ -2026,7 +2026,7 @@
         <v>13610</v>
       </c>
       <c r="F71" s="14" t="n">
-        <v>46070.5695082101</v>
+        <v>46077.47166280816</v>
       </c>
     </row>
     <row r="72">
@@ -2048,7 +2048,7 @@
         <v>13254</v>
       </c>
       <c r="F72" s="14" t="n">
-        <v>46070.56964299288</v>
+        <v>46077.47180613041</v>
       </c>
     </row>
     <row r="73">
@@ -2070,7 +2070,7 @@
         <v>2611</v>
       </c>
       <c r="F73" s="14" t="n">
-        <v>46070.56972604045</v>
+        <v>46077.4718877302</v>
       </c>
     </row>
     <row r="74">
@@ -2092,7 +2092,7 @@
         <v>6244</v>
       </c>
       <c r="F74" s="14" t="n">
-        <v>46070.56982765697</v>
+        <v>46077.47199529816</v>
       </c>
     </row>
     <row r="75">
@@ -2122,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F76" s="14" t="n">
-        <v>46070.56993373779</v>
+        <v>46077.47209700358</v>
       </c>
     </row>
     <row r="77">
@@ -2150,7 +2150,7 @@
         <v>1037</v>
       </c>
       <c r="F77" s="14" t="n">
-        <v>46070.57001838685</v>
+        <v>46077.47218107609</v>
       </c>
     </row>
     <row r="78">
@@ -2163,16 +2163,16 @@
         <v>77068529</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>2034</v>
+        <v>1826</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>2470</v>
+        <v>2220</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>2470</v>
+        <v>2220</v>
       </c>
       <c r="F78" s="14" t="n">
-        <v>46070.57009693894</v>
+        <v>46077.47225508854</v>
       </c>
     </row>
     <row r="79">
@@ -2194,7 +2194,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="14" t="n">
-        <v>46070.57021244458</v>
+        <v>46077.47237509937</v>
       </c>
     </row>
     <row r="80">
@@ -2216,7 +2216,7 @@
         <v>2109</v>
       </c>
       <c r="F80" s="14" t="n">
-        <v>46070.57029135568</v>
+        <v>46077.4724526684</v>
       </c>
     </row>
     <row r="81">
@@ -2238,7 +2238,7 @@
         <v>947</v>
       </c>
       <c r="F81" s="14" t="n">
-        <v>46070.57038538146</v>
+        <v>46077.4725486157</v>
       </c>
     </row>
     <row r="82">
@@ -2260,7 +2260,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="14" t="n">
-        <v>46070.5704623277</v>
+        <v>46077.47262680926</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2282,7 +2282,7 @@
         <v>314</v>
       </c>
       <c r="F83" s="14" t="n">
-        <v>46070.57053665875</v>
+        <v>46077.47269775869</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>166</v>
       </c>
       <c r="F84" s="14" t="n">
-        <v>46070.57061954381</v>
+        <v>46077.47277355191</v>
       </c>
     </row>
     <row r="85">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>5849</v>
+        <v>5833</v>
       </c>
       <c r="F85" s="14" t="n">
-        <v>46070.57068116642</v>
+        <v>46077.47283329124</v>
       </c>
     </row>
     <row r="86">
@@ -2348,7 +2348,7 @@
         <v>4367</v>
       </c>
       <c r="F86" s="14" t="n">
-        <v>46070.570792658</v>
+        <v>46077.47293975276</v>
       </c>
     </row>
     <row r="87">
@@ -2370,7 +2370,7 @@
         <v>464</v>
       </c>
       <c r="F87" s="14" t="n">
-        <v>46070.57087212132</v>
+        <v>46077.47302417996</v>
       </c>
     </row>
     <row r="88">
@@ -2392,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="F88" s="14" t="n">
-        <v>46070.57093553682</v>
+        <v>46077.47308133428</v>
       </c>
     </row>
     <row r="89">
@@ -2405,16 +2405,16 @@
         <v>77093189</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>808</v>
+        <v>50</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>16690</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>16690</v>
+        <v>50</v>
       </c>
       <c r="F89" s="14" t="n">
-        <v>46070.57102839626</v>
+        <v>46077.47314117642</v>
       </c>
     </row>
     <row r="90">
@@ -2436,7 +2436,7 @@
         <v>99</v>
       </c>
       <c r="F90" s="14" t="n">
-        <v>46070.57110646462</v>
+        <v>46077.47321881547</v>
       </c>
     </row>
     <row r="91">
@@ -2458,7 +2458,7 @@
         <v>972</v>
       </c>
       <c r="F91" s="14" t="n">
-        <v>46070.5711894758</v>
+        <v>46077.47330367859</v>
       </c>
     </row>
     <row r="92">
@@ -2471,16 +2471,16 @@
         <v>77072365</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F92" s="14" t="n">
-        <v>46070.57127043933</v>
+        <v>46077.47338661175</v>
       </c>
     </row>
     <row r="93">
@@ -2502,7 +2502,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>46070.57134102142</v>
+        <v>46077.47346108476</v>
       </c>
     </row>
   </sheetData>

--- a/miac_table.xlsx
+++ b/miac_table.xlsx
@@ -576,7 +576,7 @@
         <v>484</v>
       </c>
       <c r="F4" s="14" t="n">
-        <v>46077.46606808516</v>
+        <v>46077.531342006</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +598,7 @@
         <v>10609</v>
       </c>
       <c r="F5" s="14" t="n">
-        <v>46077.46622377577</v>
+        <v>46077.531502919</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
         <v>572</v>
       </c>
       <c r="F6" s="14" t="n">
-        <v>46077.46626560819</v>
+        <v>46077.53154581435</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         <v>7695</v>
       </c>
       <c r="F7" s="14" t="n">
-        <v>46077.46634393556</v>
+        <v>46077.531635509</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>2946</v>
       </c>
       <c r="F8" s="14" t="n">
-        <v>46077.46639662455</v>
+        <v>46077.53169064524</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>2796</v>
       </c>
       <c r="F9" s="14" t="n">
-        <v>46077.46647018787</v>
+        <v>46077.53177973471</v>
       </c>
     </row>
     <row r="10">
@@ -708,7 +708,7 @@
         <v>1315</v>
       </c>
       <c r="F10" s="14" t="n">
-        <v>46077.46652208106</v>
+        <v>46077.53183439052</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
         <v>137802</v>
       </c>
       <c r="F11" s="14" t="n">
-        <v>46077.46659231871</v>
+        <v>46077.53190633292</v>
       </c>
     </row>
     <row r="12">
@@ -752,7 +752,7 @@
         <v>167</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>46077.46664875133</v>
+        <v>46077.53196806977</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +774,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>46077.46670596543</v>
+        <v>46077.53201616353</v>
       </c>
     </row>
     <row r="14">
@@ -796,7 +796,7 @@
         <v>2846</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>46077.46678744127</v>
+        <v>46077.53209742994</v>
       </c>
     </row>
     <row r="15">
@@ -818,7 +818,7 @@
         <v>340</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>46077.46683844421</v>
+        <v>46077.53215220148</v>
       </c>
     </row>
     <row r="16">
@@ -840,7 +840,7 @@
         <v>1590</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>46077.46691147962</v>
+        <v>46077.53221932164</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +862,7 @@
         <v>4837</v>
       </c>
       <c r="F17" s="14" t="n">
-        <v>46077.46699656581</v>
+        <v>46077.53229918991</v>
       </c>
     </row>
     <row r="18">
@@ -884,7 +884,7 @@
         <v>1068</v>
       </c>
       <c r="F18" s="14" t="n">
-        <v>46077.46706443272</v>
+        <v>46077.53237286967</v>
       </c>
     </row>
     <row r="19">
@@ -906,7 +906,7 @@
         <v>2131</v>
       </c>
       <c r="F19" s="14" t="n">
-        <v>46077.46714182491</v>
+        <v>46077.53244859047</v>
       </c>
     </row>
     <row r="20">
@@ -928,7 +928,7 @@
         <v>13645</v>
       </c>
       <c r="F20" s="14" t="n">
-        <v>46077.46727770412</v>
+        <v>46077.53257755724</v>
       </c>
     </row>
     <row r="21">
@@ -950,7 +950,7 @@
         <v>4714</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>46077.46738170412</v>
+        <v>46077.53267500559</v>
       </c>
     </row>
     <row r="22">
@@ -972,7 +972,7 @@
         <v>9198</v>
       </c>
       <c r="F22" s="14" t="n">
-        <v>46077.4674867353</v>
+        <v>46077.5327703889</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>3589</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>46077.46757836912</v>
+        <v>46077.53286382458</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>3242</v>
       </c>
       <c r="F24" s="14" t="n">
-        <v>46077.4676749947</v>
+        <v>46077.53295923685</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>19007</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>46077.46779366671</v>
+        <v>46077.53307310067</v>
       </c>
     </row>
     <row r="26">
@@ -1060,7 +1060,7 @@
         <v>7870</v>
       </c>
       <c r="F26" s="14" t="n">
-        <v>46077.4678849999</v>
+        <v>46077.53315875254</v>
       </c>
     </row>
     <row r="27">
@@ -1082,7 +1082,7 @@
         <v>390</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>46077.46793999975</v>
+        <v>46077.53320870901</v>
       </c>
     </row>
     <row r="28">
@@ -1104,7 +1104,7 @@
         <v>5158</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>46077.46805526641</v>
+        <v>46077.53331756475</v>
       </c>
     </row>
     <row r="29">
@@ -1126,7 +1126,7 @@
         <v>959</v>
       </c>
       <c r="F29" s="14" t="n">
-        <v>46077.46811345909</v>
+        <v>46077.53337359066</v>
       </c>
     </row>
     <row r="30">
@@ -1148,7 +1148,7 @@
         <v>119</v>
       </c>
       <c r="F30" s="14" t="n">
-        <v>46077.46818710918</v>
+        <v>46077.53343238742</v>
       </c>
     </row>
     <row r="31">
@@ -1170,7 +1170,7 @@
         <v>21256</v>
       </c>
       <c r="F31" s="14" t="n">
-        <v>46077.46833185334</v>
+        <v>46077.53355861797</v>
       </c>
     </row>
     <row r="32">
@@ -1192,7 +1192,7 @@
         <v>4981</v>
       </c>
       <c r="F32" s="14" t="n">
-        <v>46077.46844795928</v>
+        <v>46077.53367492419</v>
       </c>
     </row>
     <row r="33">
@@ -1214,7 +1214,7 @@
         <v>3970</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>46077.46853460908</v>
+        <v>46077.53375958354</v>
       </c>
     </row>
     <row r="34">
@@ -1236,7 +1236,7 @@
         <v>21854</v>
       </c>
       <c r="F34" s="14" t="n">
-        <v>46077.46862805667</v>
+        <v>46077.53384405483</v>
       </c>
     </row>
     <row r="35">
@@ -1258,7 +1258,7 @@
         <v>2379</v>
       </c>
       <c r="F35" s="14" t="n">
-        <v>46077.46871319177</v>
+        <v>46077.53393688399</v>
       </c>
     </row>
     <row r="36">
@@ -1280,7 +1280,7 @@
         <v>8348</v>
       </c>
       <c r="F36" s="14" t="n">
-        <v>46077.46881306272</v>
+        <v>46077.53403590628</v>
       </c>
     </row>
     <row r="37">
@@ -1302,7 +1302,7 @@
         <v>36874</v>
       </c>
       <c r="F37" s="14" t="n">
-        <v>46077.46891912825</v>
+        <v>46077.53414758302</v>
       </c>
     </row>
     <row r="38">
@@ -1324,7 +1324,7 @@
         <v>985</v>
       </c>
       <c r="F38" s="14" t="n">
-        <v>46077.46900769171</v>
+        <v>46077.53423526743</v>
       </c>
     </row>
     <row r="39">
@@ -1346,7 +1346,7 @@
         <v>3786</v>
       </c>
       <c r="F39" s="14" t="n">
-        <v>46077.46908626775</v>
+        <v>46077.5343258096</v>
       </c>
     </row>
     <row r="40">
@@ -1368,7 +1368,7 @@
         <v>3736</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>46077.46914054921</v>
+        <v>46077.53438216398</v>
       </c>
     </row>
     <row r="41">
@@ -1390,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="14" t="n">
-        <v>46077.46918008918</v>
+        <v>46077.53442171169</v>
       </c>
     </row>
     <row r="42">
@@ -1412,7 +1412,7 @@
         <v>114</v>
       </c>
       <c r="F42" s="14" t="n">
-        <v>46077.46923472254</v>
+        <v>46077.53447730714</v>
       </c>
     </row>
     <row r="43">
@@ -1434,7 +1434,7 @@
         <v>247</v>
       </c>
       <c r="F43" s="14" t="n">
-        <v>46077.46929349176</v>
+        <v>46077.53453516534</v>
       </c>
     </row>
     <row r="44">
@@ -1456,7 +1456,7 @@
         <v>1823</v>
       </c>
       <c r="F44" s="14" t="n">
-        <v>46077.46936656618</v>
+        <v>46077.53460658497</v>
       </c>
     </row>
     <row r="45">
@@ -1478,7 +1478,7 @@
         <v>854</v>
       </c>
       <c r="F45" s="14" t="n">
-        <v>46077.46943589273</v>
+        <v>46077.53467661372</v>
       </c>
     </row>
     <row r="46">
@@ -1500,7 +1500,7 @@
         <v>10308</v>
       </c>
       <c r="F46" s="14" t="n">
-        <v>46077.46953666535</v>
+        <v>46077.53478621691</v>
       </c>
     </row>
     <row r="47">
@@ -1522,7 +1522,7 @@
         <v>1900</v>
       </c>
       <c r="F47" s="14" t="n">
-        <v>46077.46961955244</v>
+        <v>46077.5348614856</v>
       </c>
     </row>
     <row r="48">
@@ -1544,7 +1544,7 @@
         <v>1462</v>
       </c>
       <c r="F48" s="14" t="n">
-        <v>46077.46970375202</v>
+        <v>46077.5349641827</v>
       </c>
     </row>
     <row r="49">
@@ -1566,7 +1566,7 @@
         <v>2518</v>
       </c>
       <c r="F49" s="14" t="n">
-        <v>46077.46978886743</v>
+        <v>46077.53505646088</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
         <v>256</v>
       </c>
       <c r="F50" s="14" t="n">
-        <v>46077.46984163891</v>
+        <v>46077.53510974625</v>
       </c>
     </row>
     <row r="51">
@@ -1624,7 +1624,7 @@
         <v>3353</v>
       </c>
       <c r="F52" s="14" t="n">
-        <v>46077.46997662905</v>
+        <v>46077.53524995782</v>
       </c>
     </row>
     <row r="53">
@@ -1660,7 +1660,7 @@
         <v>114</v>
       </c>
       <c r="F54" s="14" t="n">
-        <v>46077.47006947265</v>
+        <v>46077.53534719815</v>
       </c>
     </row>
     <row r="55">
@@ -1682,7 +1682,7 @@
         <v>250</v>
       </c>
       <c r="F55" s="14" t="n">
-        <v>46077.47012795078</v>
+        <v>46077.53540695795</v>
       </c>
     </row>
     <row r="56">
@@ -1704,7 +1704,7 @@
         <v>3608</v>
       </c>
       <c r="F56" s="14" t="n">
-        <v>46077.47021784855</v>
+        <v>46077.53550319588</v>
       </c>
     </row>
     <row r="57">
@@ -1726,7 +1726,7 @@
         <v>51642</v>
       </c>
       <c r="F57" s="14" t="n">
-        <v>46077.47035892984</v>
+        <v>46077.53564480199</v>
       </c>
     </row>
     <row r="58">
@@ -1748,7 +1748,7 @@
         <v>1019</v>
       </c>
       <c r="F58" s="14" t="n">
-        <v>46077.47044115701</v>
+        <v>46077.53572179721</v>
       </c>
     </row>
     <row r="59">
@@ -1770,7 +1770,7 @@
         <v>783</v>
       </c>
       <c r="F59" s="14" t="n">
-        <v>46077.47054118818</v>
+        <v>46077.53581970357</v>
       </c>
     </row>
     <row r="60">
@@ -1792,7 +1792,7 @@
         <v>480</v>
       </c>
       <c r="F60" s="14" t="n">
-        <v>46077.47061573966</v>
+        <v>46077.53589336819</v>
       </c>
     </row>
     <row r="61">
@@ -1814,7 +1814,7 @@
         <v>2210</v>
       </c>
       <c r="F61" s="14" t="n">
-        <v>46077.47069145873</v>
+        <v>46077.53596360449</v>
       </c>
     </row>
     <row r="62">
@@ -1850,7 +1850,7 @@
         <v>8834</v>
       </c>
       <c r="F63" s="14" t="n">
-        <v>46077.47086494933</v>
+        <v>46077.53614154116</v>
       </c>
     </row>
     <row r="64">
@@ -1872,7 +1872,7 @@
         <v>1828</v>
       </c>
       <c r="F64" s="14" t="n">
-        <v>46077.47094917377</v>
+        <v>46077.53622929543</v>
       </c>
     </row>
     <row r="65">
@@ -1894,7 +1894,7 @@
         <v>14574</v>
       </c>
       <c r="F65" s="14" t="n">
-        <v>46077.47105578081</v>
+        <v>46077.5363286141</v>
       </c>
     </row>
     <row r="66">
@@ -1916,7 +1916,7 @@
         <v>2823</v>
       </c>
       <c r="F66" s="14" t="n">
-        <v>46077.47114208602</v>
+        <v>46077.53641400486</v>
       </c>
     </row>
     <row r="67">
@@ -1938,7 +1938,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="14" t="n">
-        <v>46077.47122260832</v>
+        <v>46077.53649438862</v>
       </c>
     </row>
     <row r="68">
@@ -1960,7 +1960,7 @@
         <v>1182</v>
       </c>
       <c r="F68" s="14" t="n">
-        <v>46077.47128458802</v>
+        <v>46077.53655940924</v>
       </c>
     </row>
     <row r="69">
@@ -1982,7 +1982,7 @@
         <v>3269</v>
       </c>
       <c r="F69" s="14" t="n">
-        <v>46077.47136633997</v>
+        <v>46077.53664600402</v>
       </c>
     </row>
     <row r="70">
@@ -2004,7 +2004,7 @@
         <v>2720</v>
       </c>
       <c r="F70" s="14" t="n">
-        <v>46077.47149185806</v>
+        <v>46077.53677036487</v>
       </c>
     </row>
     <row r="71">
@@ -2026,7 +2026,7 @@
         <v>13610</v>
       </c>
       <c r="F71" s="14" t="n">
-        <v>46077.47166280816</v>
+        <v>46077.53693456329</v>
       </c>
     </row>
     <row r="72">
@@ -2048,7 +2048,7 @@
         <v>13254</v>
       </c>
       <c r="F72" s="14" t="n">
-        <v>46077.47180613041</v>
+        <v>46077.53706626756</v>
       </c>
     </row>
     <row r="73">
@@ -2070,7 +2070,7 @@
         <v>2611</v>
       </c>
       <c r="F73" s="14" t="n">
-        <v>46077.4718877302</v>
+        <v>46077.53715723004</v>
       </c>
     </row>
     <row r="74">
@@ -2092,7 +2092,7 @@
         <v>6244</v>
       </c>
       <c r="F74" s="14" t="n">
-        <v>46077.47199529816</v>
+        <v>46077.5372665969</v>
       </c>
     </row>
     <row r="75">
@@ -2128,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="F76" s="14" t="n">
-        <v>46077.47209700358</v>
+        <v>46077.53737122433</v>
       </c>
     </row>
     <row r="77">
@@ -2150,7 +2150,7 @@
         <v>1037</v>
       </c>
       <c r="F77" s="14" t="n">
-        <v>46077.47218107609</v>
+        <v>46077.5374703669</v>
       </c>
     </row>
     <row r="78">
@@ -2172,7 +2172,7 @@
         <v>2220</v>
       </c>
       <c r="F78" s="14" t="n">
-        <v>46077.47225508854</v>
+        <v>46077.53755426581</v>
       </c>
     </row>
     <row r="79">
@@ -2194,7 +2194,7 @@
         <v>635</v>
       </c>
       <c r="F79" s="14" t="n">
-        <v>46077.47237509937</v>
+        <v>46077.53766571955</v>
       </c>
     </row>
     <row r="80">
@@ -2216,7 +2216,7 @@
         <v>2109</v>
       </c>
       <c r="F80" s="14" t="n">
-        <v>46077.4724526684</v>
+        <v>46077.53775416619</v>
       </c>
     </row>
     <row r="81">
@@ -2238,7 +2238,7 @@
         <v>947</v>
       </c>
       <c r="F81" s="14" t="n">
-        <v>46077.4725486157</v>
+        <v>46077.53785676957</v>
       </c>
     </row>
     <row r="82">
@@ -2260,7 +2260,7 @@
         <v>432</v>
       </c>
       <c r="F82" s="14" t="n">
-        <v>46077.47262680926</v>
+        <v>46077.53794006027</v>
       </c>
     </row>
     <row r="83" customFormat="1" s="12">
@@ -2282,7 +2282,7 @@
         <v>314</v>
       </c>
       <c r="F83" s="14" t="n">
-        <v>46077.47269775869</v>
+        <v>46077.53801142937</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>166</v>
       </c>
       <c r="F84" s="14" t="n">
-        <v>46077.47277355191</v>
+        <v>46077.53808505435</v>
       </c>
     </row>
     <row r="85">
@@ -2326,7 +2326,7 @@
         <v>5833</v>
       </c>
       <c r="F85" s="14" t="n">
-        <v>46077.47283329124</v>
+        <v>46077.5381437016</v>
       </c>
     </row>
     <row r="86">
@@ -2348,7 +2348,7 @@
         <v>4367</v>
       </c>
       <c r="F86" s="14" t="n">
-        <v>46077.47293975276</v>
+        <v>46077.53824988246</v>
       </c>
     </row>
     <row r="87">
@@ -2370,7 +2370,7 @@
         <v>464</v>
       </c>
       <c r="F87" s="14" t="n">
-        <v>46077.47302417996</v>
+        <v>46077.53833167261</v>
       </c>
     </row>
     <row r="88">
@@ -2392,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="F88" s="14" t="n">
-        <v>46077.47308133428</v>
+        <v>46077.53838905736</v>
       </c>
     </row>
     <row r="89">
@@ -2414,7 +2414,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="14" t="n">
-        <v>46077.47314117642</v>
+        <v>46077.53845668347</v>
       </c>
     </row>
     <row r="90">
@@ -2436,7 +2436,7 @@
         <v>99</v>
       </c>
       <c r="F90" s="14" t="n">
-        <v>46077.47321881547</v>
+        <v>46077.538540676</v>
       </c>
     </row>
     <row r="91">
@@ -2458,7 +2458,7 @@
         <v>972</v>
       </c>
       <c r="F91" s="14" t="n">
-        <v>46077.47330367859</v>
+        <v>46077.53862624437</v>
       </c>
     </row>
     <row r="92">
@@ -2480,7 +2480,7 @@
         <v>289</v>
       </c>
       <c r="F92" s="14" t="n">
-        <v>46077.47338661175</v>
+        <v>46077.53871060486</v>
       </c>
     </row>
     <row r="93">
@@ -2502,7 +2502,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>46077.47346108476</v>
+        <v>46077.53878886322</v>
       </c>
     </row>
   </sheetData>
